--- a/Data/g_data/G_data.xlsx
+++ b/Data/g_data/G_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\S05P21A302\Data\g_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B8D28B-D013-4082-A40E-EBE1DABFCFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1572,12 +1578,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1585,8 +1591,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1632,15 +1645,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1682,7 +1703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1714,9 +1735,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1748,6 +1787,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1923,14 +1980,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="W82" sqref="W82"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2030,7 +2089,7 @@
         <v>117000000</v>
       </c>
       <c r="K2">
-        <v>23.56410256</v>
+        <v>23.564102559999998</v>
       </c>
       <c r="L2">
         <v>20338075</v>
@@ -2039,10 +2098,10 @@
         <v>26090846</v>
       </c>
       <c r="N2">
-        <v>77.95099999999999</v>
+        <v>77.950999999999993</v>
       </c>
       <c r="O2">
-        <v>77.95099999999999</v>
+        <v>77.950999999999993</v>
       </c>
       <c r="P2">
         <v>21.07</v>
@@ -2057,16 +2116,18 @@
         <v>5</v>
       </c>
       <c r="T2">
+        <f>IF(G2,0,12.5)</f>
         <v>12.5</v>
       </c>
       <c r="U2">
         <v>22.5</v>
       </c>
       <c r="V2">
+        <f>SUM(Q2:U2)</f>
         <v>72.5</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2089,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77.77777777777779</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="I3">
         <v>458000000</v>
@@ -2098,7 +2159,7 @@
         <v>89531000</v>
       </c>
       <c r="K3">
-        <v>5.11554657</v>
+        <v>5.1155465700000002</v>
       </c>
       <c r="L3">
         <v>800282</v>
@@ -2125,16 +2186,18 @@
         <v>15</v>
       </c>
       <c r="T3">
+        <f t="shared" ref="T3:T66" si="0">IF(G3,0,12.5)</f>
         <v>12.5</v>
       </c>
       <c r="U3">
         <v>22.5</v>
       </c>
       <c r="V3">
-        <v>76.66666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <f t="shared" ref="V3:V66" si="1">SUM(Q3:U3)</f>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2157,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I4">
         <v>917000000</v>
@@ -2166,7 +2229,7 @@
         <v>100011000</v>
       </c>
       <c r="K4">
-        <v>9.168991411</v>
+        <v>9.1689914110000004</v>
       </c>
       <c r="L4">
         <v>59279</v>
@@ -2175,10 +2238,10 @@
         <v>1002087</v>
       </c>
       <c r="N4">
-        <v>5.915554</v>
+        <v>5.9155540000000002</v>
       </c>
       <c r="O4">
-        <v>5.915554</v>
+        <v>5.9155540000000002</v>
       </c>
       <c r="P4">
         <v>11.56</v>
@@ -2193,16 +2256,18 @@
         <v>10</v>
       </c>
       <c r="T4">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U4">
         <v>25</v>
       </c>
       <c r="V4">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2225,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I5">
         <v>1524000000</v>
@@ -2243,10 +2308,10 @@
         <v>155624</v>
       </c>
       <c r="N5">
-        <v>8.290495</v>
+        <v>8.2904949999999999</v>
       </c>
       <c r="O5">
-        <v>8.290495</v>
+        <v>8.2904949999999999</v>
       </c>
       <c r="P5">
         <v>25.44</v>
@@ -2261,16 +2326,18 @@
         <v>5</v>
       </c>
       <c r="T5">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U5">
         <v>20</v>
       </c>
       <c r="V5">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2293,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I6">
         <v>693000000</v>
@@ -2302,7 +2369,7 @@
         <v>81000000</v>
       </c>
       <c r="K6">
-        <v>8.555555556</v>
+        <v>8.5555555559999998</v>
       </c>
       <c r="M6">
         <v>240975</v>
@@ -2326,16 +2393,18 @@
         <v>10</v>
       </c>
       <c r="T6">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U6">
         <v>2.5</v>
       </c>
       <c r="V6">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2358,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I7">
         <v>340000000</v>
@@ -2394,16 +2463,18 @@
         <v>17.5</v>
       </c>
       <c r="T7">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U7">
         <v>17.5</v>
       </c>
       <c r="V7">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2426,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I8">
         <v>913000000</v>
@@ -2462,16 +2533,18 @@
         <v>7.5</v>
       </c>
       <c r="T8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8">
         <v>22.5</v>
       </c>
       <c r="V8">
-        <v>49.16666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>49.166666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2512,10 +2585,10 @@
         <v>1424436</v>
       </c>
       <c r="N9">
-        <v>55.14576</v>
+        <v>55.145760000000003</v>
       </c>
       <c r="O9">
-        <v>55.14576</v>
+        <v>55.145760000000003</v>
       </c>
       <c r="P9">
         <v>21.43</v>
@@ -2524,22 +2597,24 @@
         <v>12.5</v>
       </c>
       <c r="R9">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S9">
         <v>7.5</v>
       </c>
       <c r="T9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U9">
         <v>22.5</v>
       </c>
       <c r="V9">
-        <v>59.16666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>59.166666666666671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2562,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I10">
         <v>565000000</v>
@@ -2595,16 +2670,18 @@
         <v>12.5</v>
       </c>
       <c r="T10">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U10">
         <v>22.5</v>
       </c>
       <c r="V10">
-        <v>61.66666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>61.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2627,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I11">
         <v>748000000</v>
@@ -2636,7 +2713,7 @@
         <v>81500000</v>
       </c>
       <c r="K11">
-        <v>9.17791411</v>
+        <v>9.1779141099999997</v>
       </c>
       <c r="L11">
         <v>400931</v>
@@ -2645,13 +2722,13 @@
         <v>1487585</v>
       </c>
       <c r="N11">
-        <v>26.9518</v>
+        <v>26.951799999999999</v>
       </c>
       <c r="O11">
-        <v>26.9518</v>
+        <v>26.951799999999999</v>
       </c>
       <c r="P11">
-        <v>33.88</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="Q11">
         <v>12.5</v>
@@ -2663,16 +2740,18 @@
         <v>10</v>
       </c>
       <c r="T11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U11">
         <v>15</v>
       </c>
       <c r="V11">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2695,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>58.33333333333334</v>
+        <v>58.333333333333343</v>
       </c>
       <c r="I12">
         <v>583000000</v>
@@ -2713,10 +2792,10 @@
         <v>1602148</v>
       </c>
       <c r="N12">
-        <v>38.71596</v>
+        <v>38.715960000000003</v>
       </c>
       <c r="O12">
-        <v>38.71596</v>
+        <v>38.715960000000003</v>
       </c>
       <c r="P12">
         <v>11.75</v>
@@ -2731,16 +2810,18 @@
         <v>12.5</v>
       </c>
       <c r="T12">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U12">
         <v>25</v>
       </c>
       <c r="V12">
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2763,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I13">
         <v>701000000</v>
@@ -2772,7 +2853,7 @@
         <v>77000000</v>
       </c>
       <c r="K13">
-        <v>9.103896104</v>
+        <v>9.1038961040000004</v>
       </c>
       <c r="L13">
         <v>370104</v>
@@ -2781,10 +2862,10 @@
         <v>1526850</v>
       </c>
       <c r="N13">
-        <v>24.23971</v>
+        <v>24.239709999999999</v>
       </c>
       <c r="O13">
-        <v>24.23971</v>
+        <v>24.239709999999999</v>
       </c>
       <c r="P13">
         <v>23.76</v>
@@ -2799,16 +2880,18 @@
         <v>10</v>
       </c>
       <c r="T13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U13">
         <v>20</v>
       </c>
       <c r="V13">
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2831,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I14">
         <v>1382000000</v>
@@ -2840,7 +2923,7 @@
         <v>88000000</v>
       </c>
       <c r="K14">
-        <v>15.70454545</v>
+        <v>15.704545449999999</v>
       </c>
       <c r="L14">
         <v>379417</v>
@@ -2849,10 +2932,10 @@
         <v>1035495</v>
       </c>
       <c r="N14">
-        <v>36.64112</v>
+        <v>36.641120000000001</v>
       </c>
       <c r="O14">
-        <v>36.64112</v>
+        <v>36.641120000000001</v>
       </c>
       <c r="P14">
         <v>31.71</v>
@@ -2867,16 +2950,18 @@
         <v>5</v>
       </c>
       <c r="T14">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U14">
         <v>17.5</v>
       </c>
       <c r="V14">
+        <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2899,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I15">
         <v>2008000000</v>
@@ -2908,7 +2993,7 @@
         <v>78000000</v>
       </c>
       <c r="K15">
-        <v>25.74358974</v>
+        <v>25.743589740000001</v>
       </c>
       <c r="L15">
         <v>216938</v>
@@ -2917,10 +3002,10 @@
         <v>1968332</v>
       </c>
       <c r="N15">
-        <v>11.02141</v>
+        <v>11.021409999999999</v>
       </c>
       <c r="O15">
-        <v>11.02141</v>
+        <v>11.021409999999999</v>
       </c>
       <c r="P15">
         <v>33.67</v>
@@ -2935,16 +3020,18 @@
         <v>5</v>
       </c>
       <c r="T15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U15">
         <v>17.5</v>
       </c>
       <c r="V15">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2967,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>66.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I16">
         <v>249000000</v>
@@ -2976,7 +3063,7 @@
         <v>42500000</v>
       </c>
       <c r="K16">
-        <v>5.858823529</v>
+        <v>5.8588235290000004</v>
       </c>
       <c r="M16">
         <v>32890</v>
@@ -2988,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>98.04000000000001</v>
+        <v>98.04</v>
       </c>
       <c r="Q16">
         <v>15</v>
@@ -3000,16 +3087,18 @@
         <v>15</v>
       </c>
       <c r="T16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U16">
         <v>2.5</v>
       </c>
       <c r="V16">
-        <v>34.16666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>34.166666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3053,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>33.41</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="Q17">
         <v>15</v>
@@ -3065,16 +3154,18 @@
         <v>15</v>
       </c>
       <c r="T17">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U17">
         <v>17.5</v>
       </c>
       <c r="V17">
-        <v>61.66666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>61.666666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3097,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I18">
         <v>739000000</v>
@@ -3106,7 +3197,7 @@
         <v>75750000</v>
       </c>
       <c r="K18">
-        <v>9.755775578</v>
+        <v>9.7557755779999997</v>
       </c>
       <c r="L18">
         <v>184421</v>
@@ -3133,16 +3224,18 @@
         <v>10</v>
       </c>
       <c r="T18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U18">
         <v>15</v>
       </c>
       <c r="V18">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3183,10 +3276,10 @@
         <v>1504352</v>
       </c>
       <c r="N19">
-        <v>47.53409</v>
+        <v>47.534089999999999</v>
       </c>
       <c r="O19">
-        <v>47.53409</v>
+        <v>47.534089999999999</v>
       </c>
       <c r="P19">
         <v>26.78</v>
@@ -3201,16 +3294,18 @@
         <v>7.5</v>
       </c>
       <c r="T19">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U19">
         <v>20</v>
       </c>
       <c r="V19">
-        <v>68.33333333333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3233,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>77.77777777777779</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="I20">
         <v>372000000</v>
@@ -3242,7 +3337,7 @@
         <v>133500000</v>
       </c>
       <c r="K20">
-        <v>2.786516854</v>
+        <v>2.7865168539999998</v>
       </c>
       <c r="L20">
         <v>689653</v>
@@ -3251,10 +3346,10 @@
         <v>3455152</v>
       </c>
       <c r="N20">
-        <v>19.96013</v>
+        <v>19.960129999999999</v>
       </c>
       <c r="O20">
-        <v>19.96013</v>
+        <v>19.960129999999999</v>
       </c>
       <c r="P20">
         <v>9.93</v>
@@ -3269,16 +3364,18 @@
         <v>20</v>
       </c>
       <c r="T20">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U20">
         <v>25</v>
       </c>
       <c r="V20">
-        <v>84.16666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>84.166666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3301,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>85.71428571428571</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="I21">
         <v>159000000</v>
@@ -3310,7 +3407,7 @@
         <v>122000000</v>
       </c>
       <c r="K21">
-        <v>1.303278689</v>
+        <v>1.3032786890000001</v>
       </c>
       <c r="L21">
         <v>803838</v>
@@ -3319,10 +3416,10 @@
         <v>3414595</v>
       </c>
       <c r="N21">
-        <v>23.54124</v>
+        <v>23.541239999999998</v>
       </c>
       <c r="O21">
-        <v>23.54124</v>
+        <v>23.541239999999998</v>
       </c>
       <c r="P21">
         <v>9.81</v>
@@ -3337,16 +3434,18 @@
         <v>25</v>
       </c>
       <c r="T21">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U21">
         <v>25</v>
       </c>
       <c r="V21">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3369,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I22">
         <v>1607000000</v>
@@ -3378,7 +3477,7 @@
         <v>86000000</v>
       </c>
       <c r="K22">
-        <v>18.68604651</v>
+        <v>18.686046510000001</v>
       </c>
       <c r="L22">
         <v>370124</v>
@@ -3405,16 +3504,18 @@
         <v>5</v>
       </c>
       <c r="T22">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U22">
         <v>17.5</v>
       </c>
       <c r="V22">
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3446,7 +3547,7 @@
         <v>56404500</v>
       </c>
       <c r="K23">
-        <v>3.491494473</v>
+        <v>3.4914944729999999</v>
       </c>
       <c r="M23">
         <v>123966</v>
@@ -3470,16 +3571,18 @@
         <v>20</v>
       </c>
       <c r="T23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U23">
         <v>25</v>
       </c>
       <c r="V23">
-        <v>61.66666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>61.666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3502,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>53.33333333333334</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="I24">
         <v>112659000</v>
@@ -3520,10 +3623,10 @@
         <v>2092469</v>
       </c>
       <c r="N24">
-        <v>37.30655</v>
+        <v>37.306550000000001</v>
       </c>
       <c r="O24">
-        <v>37.30655</v>
+        <v>37.306550000000001</v>
       </c>
       <c r="P24">
         <v>51.1</v>
@@ -3538,16 +3641,18 @@
         <v>25</v>
       </c>
       <c r="T24">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U24">
         <v>2.5</v>
       </c>
       <c r="V24">
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3570,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I25">
         <v>1745000000</v>
@@ -3588,10 +3693,10 @@
         <v>1465673</v>
       </c>
       <c r="N25">
-        <v>29.99257</v>
+        <v>29.992570000000001</v>
       </c>
       <c r="O25">
-        <v>29.99257</v>
+        <v>29.992570000000001</v>
       </c>
       <c r="P25">
         <v>46.07</v>
@@ -3606,16 +3711,18 @@
         <v>7.5</v>
       </c>
       <c r="T25">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U25">
         <v>10</v>
       </c>
       <c r="V25">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3638,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I26">
         <v>1521000000</v>
@@ -3647,7 +3754,7 @@
         <v>105000000</v>
       </c>
       <c r="K26">
-        <v>14.48571429</v>
+        <v>14.485714290000001</v>
       </c>
       <c r="L26">
         <v>448937</v>
@@ -3656,10 +3763,10 @@
         <v>1265766</v>
       </c>
       <c r="N26">
-        <v>35.46761</v>
+        <v>35.467610000000001</v>
       </c>
       <c r="O26">
-        <v>35.46761</v>
+        <v>35.467610000000001</v>
       </c>
       <c r="P26">
         <v>47.02</v>
@@ -3674,16 +3781,18 @@
         <v>5</v>
       </c>
       <c r="T26">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U26">
         <v>7.5</v>
       </c>
       <c r="V26">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3724,16 +3833,18 @@
         <v>2.5</v>
       </c>
       <c r="T27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>19.16666666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3756,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>71.42857142857143</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="I28">
         <v>735000000</v>
@@ -3765,7 +3876,7 @@
         <v>81500000</v>
       </c>
       <c r="K28">
-        <v>9.018404908000001</v>
+        <v>9.0184049080000008</v>
       </c>
       <c r="L28">
         <v>105909</v>
@@ -3774,10 +3885,10 @@
         <v>603962</v>
       </c>
       <c r="N28">
-        <v>17.53571</v>
+        <v>17.535710000000002</v>
       </c>
       <c r="O28">
-        <v>17.53571</v>
+        <v>17.535710000000002</v>
       </c>
       <c r="P28">
         <v>23.69</v>
@@ -3792,16 +3903,18 @@
         <v>10</v>
       </c>
       <c r="T28">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U28">
         <v>20</v>
       </c>
       <c r="V28">
-        <v>69.16666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>69.166666666666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3824,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>71.42857142857143</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="I29">
         <v>2789000000</v>
@@ -3842,10 +3955,10 @@
         <v>587403</v>
       </c>
       <c r="N29">
-        <v>29.99525</v>
+        <v>29.995249999999999</v>
       </c>
       <c r="O29">
-        <v>29.99525</v>
+        <v>29.995249999999999</v>
       </c>
       <c r="P29">
         <v>11.98</v>
@@ -3860,16 +3973,18 @@
         <v>5</v>
       </c>
       <c r="T29">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U29">
         <v>25</v>
       </c>
       <c r="V29">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3892,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I30">
         <v>947000000</v>
@@ -3901,7 +4016,7 @@
         <v>93500000</v>
       </c>
       <c r="K30">
-        <v>10.12834225</v>
+        <v>10.128342249999999</v>
       </c>
       <c r="L30">
         <v>185640</v>
@@ -3910,10 +4025,10 @@
         <v>443455</v>
       </c>
       <c r="N30">
-        <v>41.8622</v>
+        <v>41.862200000000001</v>
       </c>
       <c r="O30">
-        <v>41.8622</v>
+        <v>41.862200000000001</v>
       </c>
       <c r="P30">
         <v>48.95</v>
@@ -3928,16 +4043,18 @@
         <v>7.5</v>
       </c>
       <c r="T30">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U30">
         <v>7.5</v>
       </c>
       <c r="V30">
-        <v>40.83333333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>40.833333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3978,13 +4095,13 @@
         <v>2637242</v>
       </c>
       <c r="N31">
-        <v>20.45292</v>
+        <v>20.452919999999999</v>
       </c>
       <c r="O31">
-        <v>20.45292</v>
+        <v>20.452919999999999</v>
       </c>
       <c r="P31">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="Q31">
         <v>22.5</v>
@@ -3996,16 +4113,18 @@
         <v>20</v>
       </c>
       <c r="T31">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U31">
         <v>25</v>
       </c>
       <c r="V31">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4028,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I32">
         <v>330000000</v>
@@ -4037,7 +4156,7 @@
         <v>72000000</v>
       </c>
       <c r="K32">
-        <v>4.583333333</v>
+        <v>4.5833333329999997</v>
       </c>
       <c r="L32">
         <v>54854</v>
@@ -4052,7 +4171,7 @@
         <v>156.1369</v>
       </c>
       <c r="P32">
-        <v>37.38</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="Q32">
         <v>12.5</v>
@@ -4064,16 +4183,18 @@
         <v>17.5</v>
       </c>
       <c r="T32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U32">
         <v>15</v>
       </c>
       <c r="V32">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4105,7 +4226,7 @@
         <v>65500000</v>
       </c>
       <c r="K33">
-        <v>5.557251908</v>
+        <v>5.5572519079999996</v>
       </c>
       <c r="L33">
         <v>18296</v>
@@ -4126,22 +4247,24 @@
         <v>12.5</v>
       </c>
       <c r="R33">
-        <v>18.33333333333334</v>
+        <v>18.333333333333339</v>
       </c>
       <c r="S33">
         <v>15</v>
       </c>
       <c r="T33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U33">
         <v>2.5</v>
       </c>
       <c r="V33">
-        <v>48.33333333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>48.333333333333343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4182,10 +4305,10 @@
         <v>1171734</v>
       </c>
       <c r="N34">
-        <v>50.82928</v>
+        <v>50.829279999999997</v>
       </c>
       <c r="O34">
-        <v>50.82928</v>
+        <v>50.829279999999997</v>
       </c>
       <c r="P34">
         <v>11.52</v>
@@ -4194,22 +4317,24 @@
         <v>20</v>
       </c>
       <c r="R34">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S34">
         <v>17.5</v>
       </c>
       <c r="T34">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U34">
         <v>25</v>
       </c>
       <c r="V34">
-        <v>91.66666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4232,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I35">
         <v>318000000</v>
@@ -4241,7 +4366,7 @@
         <v>85000000</v>
       </c>
       <c r="K35">
-        <v>3.741176471</v>
+        <v>3.7411764710000002</v>
       </c>
       <c r="M35">
         <v>85721</v>
@@ -4253,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -4265,16 +4390,18 @@
         <v>17.5</v>
       </c>
       <c r="T35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U35">
         <v>15</v>
       </c>
       <c r="V35">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4297,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I36">
         <v>172000000</v>
@@ -4330,16 +4457,18 @@
         <v>20</v>
       </c>
       <c r="T36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U36">
         <v>10</v>
       </c>
       <c r="V36">
-        <v>44.16666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>44.166666666666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4368,7 +4497,7 @@
         <v>260549144</v>
       </c>
       <c r="J37">
-        <v>66793893.8333333</v>
+        <v>66793893.833333299</v>
       </c>
       <c r="K37">
         <v>3.900792858</v>
@@ -4395,16 +4524,18 @@
         <v>17.5</v>
       </c>
       <c r="T37">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U37">
         <v>17.5</v>
       </c>
       <c r="V37">
-        <v>69.16666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>69.166666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4427,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I38">
         <v>1258000000</v>
@@ -4436,7 +4567,7 @@
         <v>70500000</v>
       </c>
       <c r="K38">
-        <v>17.84397163</v>
+        <v>17.843971629999999</v>
       </c>
       <c r="L38">
         <v>62761</v>
@@ -4445,10 +4576,10 @@
         <v>312951</v>
       </c>
       <c r="N38">
-        <v>20.05458</v>
+        <v>20.054580000000001</v>
       </c>
       <c r="O38">
-        <v>20.05458</v>
+        <v>20.054580000000001</v>
       </c>
       <c r="P38">
         <v>24.15</v>
@@ -4463,16 +4594,18 @@
         <v>5</v>
       </c>
       <c r="T38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U38">
         <v>20</v>
       </c>
       <c r="V38">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4495,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I39">
         <v>878000000</v>
@@ -4504,7 +4637,7 @@
         <v>95742000</v>
       </c>
       <c r="K39">
-        <v>9.170478996</v>
+        <v>9.1704789959999999</v>
       </c>
       <c r="L39">
         <v>374097</v>
@@ -4513,13 +4646,13 @@
         <v>754988</v>
       </c>
       <c r="N39">
-        <v>49.55006</v>
+        <v>49.550060000000002</v>
       </c>
       <c r="O39">
-        <v>49.55006</v>
+        <v>49.550060000000002</v>
       </c>
       <c r="P39">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Q39">
         <v>12.5</v>
@@ -4531,16 +4664,18 @@
         <v>10</v>
       </c>
       <c r="T39">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U39">
         <v>22.5</v>
       </c>
       <c r="V39">
-        <v>70.83333333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>70.833333333333329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4572,7 +4707,7 @@
         <v>90000375</v>
       </c>
       <c r="K40">
-        <v>1.408949685</v>
+        <v>1.4089496850000001</v>
       </c>
       <c r="L40">
         <v>96</v>
@@ -4581,10 +4716,10 @@
         <v>-796108</v>
       </c>
       <c r="N40">
-        <v>-0.01206</v>
+        <v>-1.206E-2</v>
       </c>
       <c r="O40">
-        <v>0.01206</v>
+        <v>1.206E-2</v>
       </c>
       <c r="P40">
         <v>63.41</v>
@@ -4599,16 +4734,18 @@
         <v>25</v>
       </c>
       <c r="T40">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U40">
         <v>2.5</v>
       </c>
       <c r="V40">
+        <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4631,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I41">
         <v>451758000</v>
@@ -4640,7 +4777,7 @@
         <v>65377500</v>
       </c>
       <c r="K41">
-        <v>6.90999197</v>
+        <v>6.9099919700000001</v>
       </c>
       <c r="L41">
         <v>247439</v>
@@ -4649,10 +4786,10 @@
         <v>638613</v>
       </c>
       <c r="N41">
-        <v>38.74631</v>
+        <v>38.746310000000001</v>
       </c>
       <c r="O41">
-        <v>38.74631</v>
+        <v>38.746310000000001</v>
       </c>
       <c r="P41">
         <v>27.49</v>
@@ -4667,16 +4804,18 @@
         <v>12.5</v>
       </c>
       <c r="T41">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U41">
         <v>20</v>
       </c>
       <c r="V41">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4708,7 +4847,7 @@
         <v>85500000</v>
       </c>
       <c r="K42">
-        <v>3.192982456</v>
+        <v>3.1929824560000002</v>
       </c>
       <c r="M42">
         <v>-247413</v>
@@ -4732,16 +4871,18 @@
         <v>20</v>
       </c>
       <c r="T42">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U42">
         <v>2.5</v>
       </c>
       <c r="V42">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4764,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I43">
         <v>47000000</v>
@@ -4773,7 +4914,7 @@
         <v>81467500</v>
       </c>
       <c r="K43">
-        <v>0.576917176</v>
+        <v>0.57691717600000003</v>
       </c>
       <c r="L43">
         <v>170781</v>
@@ -4782,10 +4923,10 @@
         <v>110368</v>
       </c>
       <c r="N43">
-        <v>154.7378</v>
+        <v>154.73779999999999</v>
       </c>
       <c r="O43">
-        <v>154.7378</v>
+        <v>154.73779999999999</v>
       </c>
       <c r="P43">
         <v>50.5</v>
@@ -4800,16 +4941,18 @@
         <v>25</v>
       </c>
       <c r="T43">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U43">
         <v>2.5</v>
       </c>
       <c r="V43">
+        <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4832,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>72.72727272727273</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="I44">
         <v>677000000</v>
@@ -4841,7 +4984,7 @@
         <v>84500000</v>
       </c>
       <c r="K44">
-        <v>8.01183432</v>
+        <v>8.0118343200000002</v>
       </c>
       <c r="L44">
         <v>326487</v>
@@ -4850,10 +4993,10 @@
         <v>703392</v>
       </c>
       <c r="N44">
-        <v>46.41608</v>
+        <v>46.416080000000001</v>
       </c>
       <c r="O44">
-        <v>46.41608</v>
+        <v>46.416080000000001</v>
       </c>
       <c r="P44">
         <v>11.68</v>
@@ -4868,16 +5011,18 @@
         <v>12.5</v>
       </c>
       <c r="T44">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U44">
         <v>25</v>
       </c>
       <c r="V44">
-        <v>83.33333333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4909,7 +5054,7 @@
         <v>75000000</v>
       </c>
       <c r="K45">
-        <v>6.826666667</v>
+        <v>6.8266666669999996</v>
       </c>
       <c r="L45">
         <v>123392</v>
@@ -4918,10 +5063,10 @@
         <v>158469</v>
       </c>
       <c r="N45">
-        <v>77.86507</v>
+        <v>77.865070000000003</v>
       </c>
       <c r="O45">
-        <v>77.86507</v>
+        <v>77.865070000000003</v>
       </c>
       <c r="P45">
         <v>54.92</v>
@@ -4936,16 +5081,18 @@
         <v>12.5</v>
       </c>
       <c r="T45">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U45">
         <v>2.5</v>
       </c>
       <c r="V45">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4977,7 +5124,7 @@
         <v>122500000</v>
       </c>
       <c r="K46">
-        <v>1.559183673</v>
+        <v>1.5591836729999999</v>
       </c>
       <c r="L46">
         <v>260016</v>
@@ -4986,10 +5133,10 @@
         <v>1307266</v>
       </c>
       <c r="N46">
-        <v>19.89006</v>
+        <v>19.890059999999998</v>
       </c>
       <c r="O46">
-        <v>19.89006</v>
+        <v>19.890059999999998</v>
       </c>
       <c r="P46">
         <v>17.25</v>
@@ -5004,16 +5151,18 @@
         <v>25</v>
       </c>
       <c r="T46">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U46">
         <v>22.5</v>
       </c>
       <c r="V46">
-        <v>81.66666666666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5045,7 +5194,7 @@
         <v>57275500</v>
       </c>
       <c r="K47">
-        <v>5.192167681</v>
+        <v>5.1921676809999999</v>
       </c>
       <c r="M47">
         <v>-833787</v>
@@ -5057,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>33.95</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="Q47">
         <v>15</v>
@@ -5069,16 +5218,18 @@
         <v>15</v>
       </c>
       <c r="T47">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U47">
         <v>15</v>
       </c>
       <c r="V47">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5107,10 +5258,10 @@
         <v>300000000</v>
       </c>
       <c r="J48">
-        <v>60129833.3333333</v>
+        <v>60129833.333333299</v>
       </c>
       <c r="K48">
-        <v>4.989203917</v>
+        <v>4.9892039170000002</v>
       </c>
       <c r="M48">
         <v>309077</v>
@@ -5122,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="Q48">
         <v>12.5</v>
@@ -5134,16 +5285,18 @@
         <v>15</v>
       </c>
       <c r="T48">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U48">
         <v>15</v>
       </c>
       <c r="V48">
-        <v>44.16666666666667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>44.166666666666671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5166,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>66.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I49">
         <v>134000000</v>
@@ -5184,13 +5337,13 @@
         <v>1547918</v>
       </c>
       <c r="N49">
-        <v>24.09256</v>
+        <v>24.092559999999999</v>
       </c>
       <c r="O49">
-        <v>24.09256</v>
+        <v>24.092559999999999</v>
       </c>
       <c r="P49">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="Q49">
         <v>15</v>
@@ -5202,16 +5355,18 @@
         <v>25</v>
       </c>
       <c r="T49">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U49">
         <v>2.5</v>
       </c>
       <c r="V49">
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5234,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I50">
         <v>318000000</v>
@@ -5243,7 +5398,7 @@
         <v>63500000</v>
       </c>
       <c r="K50">
-        <v>5.007874016</v>
+        <v>5.0078740159999997</v>
       </c>
       <c r="M50">
         <v>-89342</v>
@@ -5267,16 +5422,18 @@
         <v>15</v>
       </c>
       <c r="T50">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U50">
         <v>15</v>
       </c>
       <c r="V50">
-        <v>56.66666666666667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>56.666666666666671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5299,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I51">
         <v>277000000</v>
@@ -5311,13 +5468,13 @@
         <v>606201</v>
       </c>
       <c r="N51">
-        <v>21.65123</v>
+        <v>21.651230000000002</v>
       </c>
       <c r="O51">
-        <v>21.65123</v>
+        <v>21.651230000000002</v>
       </c>
       <c r="P51">
-        <v>34.88</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="Q51">
         <v>12.5</v>
@@ -5329,16 +5486,18 @@
         <v>2.5</v>
       </c>
       <c r="T51">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U51">
         <v>15</v>
       </c>
       <c r="V51">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5361,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I52">
         <v>292000000</v>
@@ -5370,7 +5529,7 @@
         <v>64500000</v>
       </c>
       <c r="K52">
-        <v>4.527131783</v>
+        <v>4.5271317829999997</v>
       </c>
       <c r="L52">
         <v>65773</v>
@@ -5397,16 +5556,18 @@
         <v>17.5</v>
       </c>
       <c r="T52">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U52">
         <v>20</v>
       </c>
       <c r="V52">
-        <v>56.66666666666667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>56.666666666666671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5429,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I53">
         <v>2078000000</v>
@@ -5438,7 +5599,7 @@
         <v>63750000</v>
       </c>
       <c r="K53">
-        <v>32.59607843</v>
+        <v>32.596078429999999</v>
       </c>
       <c r="L53">
         <v>64159</v>
@@ -5447,10 +5608,10 @@
         <v>685582</v>
       </c>
       <c r="N53">
-        <v>9.358326</v>
+        <v>9.3583259999999999</v>
       </c>
       <c r="O53">
-        <v>9.358326</v>
+        <v>9.3583259999999999</v>
       </c>
       <c r="P53">
         <v>41.77</v>
@@ -5465,16 +5626,18 @@
         <v>2.5</v>
       </c>
       <c r="T53">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U53">
         <v>12.5</v>
       </c>
       <c r="V53">
+        <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5497,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I54">
         <v>560000000</v>
@@ -5506,7 +5669,7 @@
         <v>72500000</v>
       </c>
       <c r="K54">
-        <v>7.724137931</v>
+        <v>7.7241379309999996</v>
       </c>
       <c r="L54">
         <v>196475</v>
@@ -5521,7 +5684,7 @@
         <v>42.09301</v>
       </c>
       <c r="P54">
-        <v>37.66</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="Q54">
         <v>12.5</v>
@@ -5533,16 +5696,18 @@
         <v>12.5</v>
       </c>
       <c r="T54">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U54">
         <v>15</v>
       </c>
       <c r="V54">
-        <v>53.33333333333333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>53.333333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5571,10 +5736,10 @@
         <v>716000000</v>
       </c>
       <c r="J55">
-        <v>77214285.7142857</v>
+        <v>77214285.714285702</v>
       </c>
       <c r="K55">
-        <v>9.272895467</v>
+        <v>9.2728954669999997</v>
       </c>
       <c r="L55">
         <v>115812</v>
@@ -5583,10 +5748,10 @@
         <v>582899</v>
       </c>
       <c r="N55">
-        <v>19.86828</v>
+        <v>19.868279999999999</v>
       </c>
       <c r="O55">
-        <v>19.86828</v>
+        <v>19.868279999999999</v>
       </c>
       <c r="P55">
         <v>10</v>
@@ -5601,16 +5766,18 @@
         <v>10</v>
       </c>
       <c r="T55">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U55">
         <v>25</v>
       </c>
       <c r="V55">
-        <v>61.66666666666667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>61.666666666666671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5642,7 +5809,7 @@
         <v>44731500</v>
       </c>
       <c r="K56">
-        <v>0.6324849380000001</v>
+        <v>0.63248493800000005</v>
       </c>
       <c r="M56">
         <v>-201677</v>
@@ -5654,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>36.27</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="Q56">
         <v>15</v>
@@ -5666,16 +5833,18 @@
         <v>25</v>
       </c>
       <c r="T56">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U56">
         <v>15</v>
       </c>
       <c r="V56">
-        <v>56.66666666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>56.666666666666671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5698,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I57">
         <v>666000000</v>
@@ -5707,7 +5876,7 @@
         <v>69600000</v>
       </c>
       <c r="K57">
-        <v>9.568965517000001</v>
+        <v>9.5689655170000005</v>
       </c>
       <c r="L57">
         <v>66878</v>
@@ -5716,10 +5885,10 @@
         <v>235743</v>
       </c>
       <c r="N57">
-        <v>28.36903</v>
+        <v>28.369029999999999</v>
       </c>
       <c r="O57">
-        <v>28.36903</v>
+        <v>28.369029999999999</v>
       </c>
       <c r="P57">
         <v>34.92</v>
@@ -5734,16 +5903,18 @@
         <v>10</v>
       </c>
       <c r="T57">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U57">
         <v>15</v>
       </c>
       <c r="V57">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5766,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I58">
         <v>279432000</v>
@@ -5775,7 +5946,7 @@
         <v>52435000</v>
       </c>
       <c r="K58">
-        <v>5.329112234</v>
+        <v>5.3291122340000001</v>
       </c>
       <c r="L58">
         <v>87067</v>
@@ -5802,16 +5973,18 @@
         <v>15</v>
       </c>
       <c r="T58">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U58">
         <v>20</v>
       </c>
       <c r="V58">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5834,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I59">
         <v>765000000</v>
@@ -5843,7 +6016,7 @@
         <v>64500000</v>
       </c>
       <c r="K59">
-        <v>11.86046512</v>
+        <v>11.860465120000001</v>
       </c>
       <c r="L59">
         <v>79293</v>
@@ -5852,10 +6025,10 @@
         <v>372337</v>
       </c>
       <c r="N59">
-        <v>21.29603</v>
+        <v>21.296029999999998</v>
       </c>
       <c r="O59">
-        <v>21.29603</v>
+        <v>21.296029999999998</v>
       </c>
       <c r="P59">
         <v>31.31</v>
@@ -5870,16 +6043,18 @@
         <v>7.5</v>
       </c>
       <c r="T59">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U59">
         <v>17.5</v>
       </c>
       <c r="V59">
+        <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5902,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I60">
         <v>269000000</v>
@@ -5920,34 +6095,36 @@
         <v>39676</v>
       </c>
       <c r="N60">
-        <v>90.10737</v>
+        <v>90.107370000000003</v>
       </c>
       <c r="O60">
-        <v>90.10737</v>
+        <v>90.107370000000003</v>
       </c>
       <c r="P60">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="Q60">
         <v>12.5</v>
       </c>
       <c r="R60">
-        <v>23.33333333333334</v>
+        <v>23.333333333333339</v>
       </c>
       <c r="S60">
         <v>20</v>
       </c>
       <c r="T60">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="U60">
         <v>12.5</v>
       </c>
       <c r="V60">
-        <v>80.83333333333334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>80.833333333333343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5970,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I61">
         <v>954000000</v>
@@ -5979,7 +6156,7 @@
         <v>120333333.333333</v>
       </c>
       <c r="K61">
-        <v>7.927977839</v>
+        <v>7.9279778390000004</v>
       </c>
       <c r="L61">
         <v>130124</v>
@@ -6006,16 +6183,18 @@
         <v>12.5</v>
       </c>
       <c r="T61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U61">
         <v>20</v>
       </c>
       <c r="V61">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6038,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I62">
         <v>430000000</v>
@@ -6047,7 +6226,7 @@
         <v>67000000</v>
       </c>
       <c r="K62">
-        <v>6.417910448</v>
+        <v>6.4179104479999998</v>
       </c>
       <c r="L62">
         <v>16565</v>
@@ -6056,10 +6235,10 @@
         <v>236123</v>
       </c>
       <c r="N62">
-        <v>7.015411</v>
+        <v>7.0154110000000003</v>
       </c>
       <c r="O62">
-        <v>7.015411</v>
+        <v>7.0154110000000003</v>
       </c>
       <c r="P62">
         <v>40.79</v>
@@ -6074,16 +6253,18 @@
         <v>12.5</v>
       </c>
       <c r="T62">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U62">
         <v>12.5</v>
       </c>
       <c r="V62">
+        <f t="shared" si="1"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6106,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I63">
         <v>106272000</v>
@@ -6115,7 +6296,7 @@
         <v>75750500</v>
       </c>
       <c r="K63">
-        <v>1.402921433</v>
+        <v>1.4029214329999999</v>
       </c>
       <c r="L63">
         <v>261473</v>
@@ -6124,13 +6305,13 @@
         <v>-609172</v>
       </c>
       <c r="N63">
-        <v>-42.9227</v>
+        <v>-42.922699999999999</v>
       </c>
       <c r="O63">
-        <v>42.9227</v>
+        <v>42.922699999999999</v>
       </c>
       <c r="P63">
-        <v>34.34</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="Q63">
         <v>12.5</v>
@@ -6142,16 +6323,18 @@
         <v>25</v>
       </c>
       <c r="T63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U63">
         <v>15</v>
       </c>
       <c r="V63">
-        <v>65.83333333333333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>65.833333333333329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6183,7 +6366,7 @@
         <v>141000000</v>
       </c>
       <c r="K64">
-        <v>1.567375887</v>
+        <v>1.5673758870000001</v>
       </c>
       <c r="L64">
         <v>175538</v>
@@ -6192,10 +6375,10 @@
         <v>863467</v>
       </c>
       <c r="N64">
-        <v>20.32944</v>
+        <v>20.329440000000002</v>
       </c>
       <c r="O64">
-        <v>20.32944</v>
+        <v>20.329440000000002</v>
       </c>
       <c r="P64">
         <v>20.7</v>
@@ -6210,16 +6393,18 @@
         <v>22.5</v>
       </c>
       <c r="T64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U64">
         <v>22.5</v>
       </c>
       <c r="V64">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6242,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>28.57142857142857</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="I65">
         <v>235000000</v>
@@ -6266,28 +6451,30 @@
         <v>57.23198</v>
       </c>
       <c r="P65">
-        <v>66.40000000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="Q65">
         <v>2.5</v>
       </c>
       <c r="R65">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S65">
         <v>20</v>
       </c>
       <c r="T65">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U65">
         <v>2.5</v>
       </c>
       <c r="V65">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6310,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I66">
         <v>584000000</v>
@@ -6334,7 +6521,7 @@
         <v>14.90568</v>
       </c>
       <c r="P66">
-        <v>18.56</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="Q66">
         <v>12.5</v>
@@ -6346,16 +6533,18 @@
         <v>5</v>
       </c>
       <c r="T66">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U66">
         <v>22.5</v>
       </c>
       <c r="V66">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <f t="shared" si="1"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6384,7 +6573,7 @@
         <v>696000000</v>
       </c>
       <c r="J67">
-        <v>65833333.3333333</v>
+        <v>65833333.333333299</v>
       </c>
       <c r="K67">
         <v>10.5721519</v>
@@ -6402,7 +6591,7 @@
         <v>11.07943</v>
       </c>
       <c r="P67">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="Q67">
         <v>15</v>
@@ -6414,16 +6603,18 @@
         <v>7.5</v>
       </c>
       <c r="T67">
+        <f t="shared" ref="T67:T130" si="2">IF(G67,0,12.5)</f>
         <v>0</v>
       </c>
       <c r="U67">
         <v>12.5</v>
       </c>
       <c r="V67">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <f t="shared" ref="V67:V130" si="3">SUM(Q67:U67)</f>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6446,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I68">
         <v>1002000000</v>
@@ -6479,16 +6670,18 @@
         <v>7.5</v>
       </c>
       <c r="T68">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U68">
         <v>22.5</v>
       </c>
       <c r="V68">
-        <v>44.16666666666667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>44.166666666666671</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6511,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I69">
         <v>501000000</v>
@@ -6520,7 +6713,7 @@
         <v>81500000</v>
       </c>
       <c r="K69">
-        <v>6.147239264</v>
+        <v>6.1472392640000004</v>
       </c>
       <c r="L69">
         <v>24363</v>
@@ -6547,16 +6740,18 @@
         <v>15</v>
       </c>
       <c r="T69">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U69">
         <v>2.5</v>
       </c>
       <c r="V69">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6588,7 +6783,7 @@
         <v>66000000</v>
       </c>
       <c r="K70">
-        <v>4.984848485</v>
+        <v>4.9848484849999997</v>
       </c>
       <c r="L70">
         <v>17120</v>
@@ -6615,16 +6810,18 @@
         <v>15</v>
       </c>
       <c r="T70">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U70">
         <v>2.5</v>
       </c>
       <c r="V70">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6647,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I71">
         <v>339000000</v>
@@ -6656,7 +6853,7 @@
         <v>81500000</v>
       </c>
       <c r="K71">
-        <v>4.159509202</v>
+        <v>4.1595092019999997</v>
       </c>
       <c r="L71">
         <v>24941</v>
@@ -6665,10 +6862,10 @@
         <v>190402</v>
       </c>
       <c r="N71">
-        <v>13.09913</v>
+        <v>13.099130000000001</v>
       </c>
       <c r="O71">
-        <v>13.09913</v>
+        <v>13.099130000000001</v>
       </c>
       <c r="P71">
         <v>15.61</v>
@@ -6683,16 +6880,18 @@
         <v>17.5</v>
       </c>
       <c r="T71">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U71">
         <v>25</v>
       </c>
       <c r="V71">
-        <v>74.16666666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>74.166666666666671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6715,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>78.57142857142857</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="I72">
         <v>194000000</v>
@@ -6748,16 +6947,18 @@
         <v>22.5</v>
       </c>
       <c r="T72">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U72">
         <v>22.5</v>
       </c>
       <c r="V72">
-        <v>79.16666666666667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>79.166666666666671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6813,16 +7014,18 @@
         <v>20</v>
       </c>
       <c r="T73">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U73">
         <v>2.5</v>
       </c>
       <c r="V73">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6845,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I74">
         <v>562000000</v>
@@ -6854,7 +7057,7 @@
         <v>130200000</v>
       </c>
       <c r="K74">
-        <v>4.316436252</v>
+        <v>4.3164362519999999</v>
       </c>
       <c r="L74">
         <v>196460</v>
@@ -6863,10 +7066,10 @@
         <v>507787</v>
       </c>
       <c r="N74">
-        <v>38.68945</v>
+        <v>38.689450000000001</v>
       </c>
       <c r="O74">
-        <v>38.68945</v>
+        <v>38.689450000000001</v>
       </c>
       <c r="P74">
         <v>29.78</v>
@@ -6881,16 +7084,18 @@
         <v>17.5</v>
       </c>
       <c r="T74">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U74">
         <v>17.5</v>
       </c>
       <c r="V74">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6922,7 +7127,7 @@
         <v>72830500</v>
       </c>
       <c r="K75">
-        <v>3.627381386</v>
+        <v>3.6273813860000002</v>
       </c>
       <c r="L75">
         <v>132096</v>
@@ -6937,7 +7142,7 @@
         <v>23.63749</v>
       </c>
       <c r="P75">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -6949,16 +7154,18 @@
         <v>20</v>
       </c>
       <c r="T75">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U75">
         <v>22.5</v>
       </c>
       <c r="V75">
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6981,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I76">
         <v>84000000</v>
@@ -6990,7 +7197,7 @@
         <v>78500000</v>
       </c>
       <c r="K76">
-        <v>1.070063694</v>
+        <v>1.0700636939999999</v>
       </c>
       <c r="L76">
         <v>221675</v>
@@ -6999,13 +7206,13 @@
         <v>138181</v>
       </c>
       <c r="N76">
-        <v>160.4236</v>
+        <v>160.42359999999999</v>
       </c>
       <c r="O76">
-        <v>160.4236</v>
+        <v>160.42359999999999</v>
       </c>
       <c r="P76">
-        <v>77.68000000000001</v>
+        <v>77.680000000000007</v>
       </c>
       <c r="Q76">
         <v>12.5</v>
@@ -7017,16 +7224,18 @@
         <v>25</v>
       </c>
       <c r="T76">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U76">
         <v>2.5</v>
       </c>
       <c r="V76">
+        <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7049,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I77">
         <v>223000000</v>
@@ -7058,7 +7267,7 @@
         <v>76500000</v>
       </c>
       <c r="K77">
-        <v>2.91503268</v>
+        <v>2.9150326799999999</v>
       </c>
       <c r="L77">
         <v>26728</v>
@@ -7085,16 +7294,18 @@
         <v>20</v>
       </c>
       <c r="T77">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U77">
         <v>2.5</v>
       </c>
       <c r="V77">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7117,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I78">
         <v>2092000000</v>
@@ -7135,10 +7346,10 @@
         <v>398796</v>
       </c>
       <c r="N78">
-        <v>48.16473</v>
+        <v>48.164729999999999</v>
       </c>
       <c r="O78">
-        <v>48.16473</v>
+        <v>48.164729999999999</v>
       </c>
       <c r="P78">
         <v>71.86</v>
@@ -7153,16 +7364,18 @@
         <v>5</v>
       </c>
       <c r="T78">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U78">
         <v>2.5</v>
       </c>
       <c r="V78">
-        <v>45.83333333333333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>45.833333333333329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7185,7 +7398,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I79">
         <v>2091000000</v>
@@ -7203,10 +7416,10 @@
         <v>-242685</v>
       </c>
       <c r="N79">
-        <v>-74.1587</v>
+        <v>-74.158699999999996</v>
       </c>
       <c r="O79">
-        <v>74.1587</v>
+        <v>74.158699999999996</v>
       </c>
       <c r="P79">
         <v>52.1</v>
@@ -7221,16 +7434,18 @@
         <v>5</v>
       </c>
       <c r="T79">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U79">
         <v>2.5</v>
       </c>
       <c r="V79">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7253,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I80">
         <v>578000000</v>
@@ -7262,7 +7477,7 @@
         <v>61750000</v>
       </c>
       <c r="K80">
-        <v>9.360323887</v>
+        <v>9.3603238869999998</v>
       </c>
       <c r="M80">
         <v>-1492700</v>
@@ -7286,16 +7501,18 @@
         <v>10</v>
       </c>
       <c r="T80">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U80">
         <v>22.5</v>
       </c>
       <c r="V80">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7327,7 +7544,7 @@
         <v>59038771.5</v>
       </c>
       <c r="K81">
-        <v>8.773895304</v>
+        <v>8.7738953039999998</v>
       </c>
       <c r="L81">
         <v>43651</v>
@@ -7336,13 +7553,13 @@
         <v>596399</v>
       </c>
       <c r="N81">
-        <v>7.319093</v>
+        <v>7.3190929999999996</v>
       </c>
       <c r="O81">
-        <v>7.319093</v>
+        <v>7.3190929999999996</v>
       </c>
       <c r="P81">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -7354,16 +7571,18 @@
         <v>10</v>
       </c>
       <c r="T81">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U81">
         <v>17.5</v>
       </c>
       <c r="V81">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7386,16 +7605,16 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I82">
         <v>980000000</v>
       </c>
       <c r="J82">
-        <v>82333333.3333333</v>
+        <v>82333333.333333299</v>
       </c>
       <c r="K82">
-        <v>11.90283401</v>
+        <v>11.902834009999999</v>
       </c>
       <c r="L82">
         <v>96019</v>
@@ -7404,10 +7623,10 @@
         <v>311695</v>
       </c>
       <c r="N82">
-        <v>30.80543</v>
+        <v>30.805430000000001</v>
       </c>
       <c r="O82">
-        <v>30.80543</v>
+        <v>30.805430000000001</v>
       </c>
       <c r="P82">
         <v>24.01</v>
@@ -7422,16 +7641,18 @@
         <v>7.5</v>
       </c>
       <c r="T82">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U82">
         <v>20</v>
       </c>
       <c r="V82">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7454,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I83">
         <v>457000000</v>
@@ -7463,7 +7684,7 @@
         <v>58500000</v>
       </c>
       <c r="K83">
-        <v>7.811965812</v>
+        <v>7.8119658120000004</v>
       </c>
       <c r="M83">
         <v>123030</v>
@@ -7475,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>40.16</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="Q83">
         <v>12.5</v>
@@ -7487,16 +7708,18 @@
         <v>12.5</v>
       </c>
       <c r="T83">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U83">
         <v>12.5</v>
       </c>
       <c r="V83">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7528,7 +7751,7 @@
         <v>64500000</v>
       </c>
       <c r="K84">
-        <v>4.744186047</v>
+        <v>4.7441860470000004</v>
       </c>
       <c r="L84">
         <v>5881</v>
@@ -7537,10 +7760,10 @@
         <v>11959</v>
       </c>
       <c r="N84">
-        <v>49.17635</v>
+        <v>49.176349999999999</v>
       </c>
       <c r="O84">
-        <v>49.17635</v>
+        <v>49.176349999999999</v>
       </c>
       <c r="P84">
         <v>41.39</v>
@@ -7555,16 +7778,18 @@
         <v>17.5</v>
       </c>
       <c r="T84">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U84">
         <v>12.5</v>
       </c>
       <c r="V84">
-        <v>48.33333333333333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>48.333333333333329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7587,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I85">
         <v>672659000</v>
@@ -7596,7 +7821,7 @@
         <v>110423000</v>
       </c>
       <c r="K85">
-        <v>6.09165663</v>
+        <v>6.0916566300000001</v>
       </c>
       <c r="L85">
         <v>71548</v>
@@ -7605,10 +7830,10 @@
         <v>-198429</v>
       </c>
       <c r="N85">
-        <v>-36.0572</v>
+        <v>-36.057200000000002</v>
       </c>
       <c r="O85">
-        <v>36.0572</v>
+        <v>36.057200000000002</v>
       </c>
       <c r="P85">
         <v>42.6</v>
@@ -7623,16 +7848,18 @@
         <v>15</v>
       </c>
       <c r="T85">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U85">
         <v>10</v>
       </c>
       <c r="V85">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7648,8 +7875,11 @@
       <c r="E86" t="s">
         <v>305</v>
       </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
       <c r="H86">
-        <v>38.46153846153847</v>
+        <v>38.461538461538467</v>
       </c>
       <c r="I86">
         <v>62191000</v>
@@ -7658,7 +7888,7 @@
         <v>54701000</v>
       </c>
       <c r="K86">
-        <v>1.136926199</v>
+        <v>1.1369261989999999</v>
       </c>
       <c r="L86">
         <v>5156</v>
@@ -7685,16 +7915,18 @@
         <v>25</v>
       </c>
       <c r="T86">
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U86">
         <v>17.5</v>
       </c>
       <c r="V86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7723,7 +7955,7 @@
         <v>586513000</v>
       </c>
       <c r="J87">
-        <v>146641333.333333</v>
+        <v>146641333.33333299</v>
       </c>
       <c r="K87">
         <v>3.99964312</v>
@@ -7735,10 +7967,10 @@
         <v>558266</v>
       </c>
       <c r="N87">
-        <v>39.88618</v>
+        <v>39.886180000000003</v>
       </c>
       <c r="O87">
-        <v>39.88618</v>
+        <v>39.886180000000003</v>
       </c>
       <c r="P87">
         <v>47.98</v>
@@ -7753,16 +7985,18 @@
         <v>17.5</v>
       </c>
       <c r="T87">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U87">
         <v>7.5</v>
       </c>
       <c r="V87">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7785,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I88">
         <v>148000000</v>
@@ -7794,7 +8028,7 @@
         <v>126166666.666666</v>
       </c>
       <c r="K88">
-        <v>1.173051519</v>
+        <v>1.1730515189999999</v>
       </c>
       <c r="L88">
         <v>210661</v>
@@ -7803,10 +8037,10 @@
         <v>576971</v>
       </c>
       <c r="N88">
-        <v>36.51154</v>
+        <v>36.511539999999997</v>
       </c>
       <c r="O88">
-        <v>36.51154</v>
+        <v>36.511539999999997</v>
       </c>
       <c r="P88">
         <v>49.12</v>
@@ -7821,16 +8055,18 @@
         <v>25</v>
       </c>
       <c r="T88">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U88">
         <v>7.5</v>
       </c>
       <c r="V88">
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7846,8 +8082,11 @@
       <c r="E89" t="s">
         <v>308</v>
       </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
       <c r="H89">
-        <v>42.10526315789473</v>
+        <v>42.105263157894733</v>
       </c>
       <c r="I89">
         <v>167107000</v>
@@ -7856,7 +8095,7 @@
         <v>75136000</v>
       </c>
       <c r="K89">
-        <v>2.224060371</v>
+        <v>2.2240603710000002</v>
       </c>
       <c r="M89">
         <v>-160683</v>
@@ -7880,16 +8119,18 @@
         <v>22.5</v>
       </c>
       <c r="T89">
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U89">
         <v>2.5</v>
       </c>
       <c r="V89">
-        <v>44.16666666666667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7912,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I90">
         <v>203000000</v>
@@ -7921,7 +8162,7 @@
         <v>71500000</v>
       </c>
       <c r="K90">
-        <v>2.839160839</v>
+        <v>2.8391608389999998</v>
       </c>
       <c r="L90">
         <v>25328</v>
@@ -7948,16 +8189,18 @@
         <v>20</v>
       </c>
       <c r="T90">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U90">
         <v>2.5</v>
       </c>
       <c r="V90">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7980,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>66.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I91">
         <v>130000000</v>
@@ -8007,16 +8250,18 @@
         <v>20</v>
       </c>
       <c r="T91">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U91">
         <v>10</v>
       </c>
       <c r="V91">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8032,6 +8277,9 @@
       <c r="E92" t="s">
         <v>311</v>
       </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
       <c r="H92">
         <v>10</v>
       </c>
@@ -8051,10 +8299,10 @@
         <v>42734</v>
       </c>
       <c r="N92">
-        <v>21.58001</v>
+        <v>21.580010000000001</v>
       </c>
       <c r="O92">
-        <v>21.58001</v>
+        <v>21.580010000000001</v>
       </c>
       <c r="P92">
         <v>53.37</v>
@@ -8069,16 +8317,18 @@
         <v>25</v>
       </c>
       <c r="T92">
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>2.5</v>
       </c>
       <c r="V92">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -8101,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I93">
         <v>1134000000</v>
@@ -8110,7 +8360,7 @@
         <v>52250000</v>
       </c>
       <c r="K93">
-        <v>21.70334928</v>
+        <v>21.703349280000001</v>
       </c>
       <c r="L93">
         <v>7608</v>
@@ -8125,7 +8375,7 @@
         <v>2.68506</v>
       </c>
       <c r="P93">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q93">
         <v>12.5</v>
@@ -8137,16 +8387,18 @@
         <v>5</v>
       </c>
       <c r="T93">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U93">
         <v>25</v>
       </c>
       <c r="V93">
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -8205,16 +8457,18 @@
         <v>10</v>
       </c>
       <c r="T94">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U94">
         <v>25</v>
       </c>
       <c r="V94">
-        <v>54.16666666666667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>54.166666666666671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -8237,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I95">
         <v>413000000</v>
@@ -8246,7 +8500,7 @@
         <v>48625000</v>
       </c>
       <c r="K95">
-        <v>8.493573265</v>
+        <v>8.4935732650000002</v>
       </c>
       <c r="L95">
         <v>69300</v>
@@ -8255,10 +8509,10 @@
         <v>168428</v>
       </c>
       <c r="N95">
-        <v>41.14518</v>
+        <v>41.145180000000003</v>
       </c>
       <c r="O95">
-        <v>41.14518</v>
+        <v>41.145180000000003</v>
       </c>
       <c r="P95">
         <v>65.75</v>
@@ -8273,16 +8527,18 @@
         <v>10</v>
       </c>
       <c r="T95">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U95">
         <v>2.5</v>
       </c>
       <c r="V95">
-        <v>50.83333333333333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>50.833333333333329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -8305,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I96">
         <v>204000000</v>
@@ -8314,7 +8570,7 @@
         <v>80448000</v>
       </c>
       <c r="K96">
-        <v>2.535799523</v>
+        <v>2.5357995230000001</v>
       </c>
       <c r="L96">
         <v>17286</v>
@@ -8323,10 +8579,10 @@
         <v>30867</v>
       </c>
       <c r="N96">
-        <v>56.00156</v>
+        <v>56.001559999999998</v>
       </c>
       <c r="O96">
-        <v>56.00156</v>
+        <v>56.001559999999998</v>
       </c>
       <c r="P96">
         <v>52.37</v>
@@ -8335,22 +8591,24 @@
         <v>5</v>
       </c>
       <c r="R96">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S96">
         <v>20</v>
       </c>
       <c r="T96">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U96">
         <v>2.5</v>
       </c>
       <c r="V96">
-        <v>44.16666666666667</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>44.166666666666671</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8373,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I97">
         <v>462236000</v>
@@ -8382,7 +8640,7 @@
         <v>65000000</v>
       </c>
       <c r="K97">
-        <v>7.111323077</v>
+        <v>7.1113230769999998</v>
       </c>
       <c r="M97">
         <v>-251164</v>
@@ -8406,16 +8664,18 @@
         <v>12.5</v>
       </c>
       <c r="T97">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U97">
         <v>22.5</v>
       </c>
       <c r="V97">
-        <v>49.16666666666667</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>49.166666666666671</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -8438,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>66.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I98">
         <v>442000000</v>
@@ -8447,7 +8707,7 @@
         <v>84625000</v>
       </c>
       <c r="K98">
-        <v>5.223042836</v>
+        <v>5.2230428360000003</v>
       </c>
       <c r="L98">
         <v>26150</v>
@@ -8474,16 +8734,18 @@
         <v>15</v>
       </c>
       <c r="T98">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U98">
         <v>15</v>
       </c>
       <c r="V98">
-        <v>64.16666666666667</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>64.166666666666671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -8515,7 +8777,7 @@
         <v>106601227.5</v>
       </c>
       <c r="K99">
-        <v>2.684135359</v>
+        <v>2.6841353589999999</v>
       </c>
       <c r="L99">
         <v>77203</v>
@@ -8524,10 +8786,10 @@
         <v>703371</v>
       </c>
       <c r="N99">
-        <v>10.97614</v>
+        <v>10.976139999999999</v>
       </c>
       <c r="O99">
-        <v>10.97614</v>
+        <v>10.976139999999999</v>
       </c>
       <c r="P99">
         <v>44.97</v>
@@ -8542,16 +8804,18 @@
         <v>20</v>
       </c>
       <c r="T99">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U99">
         <v>10</v>
       </c>
       <c r="V99">
-        <v>64.16666666666667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>64.166666666666671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -8574,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I100">
         <v>144000000</v>
@@ -8583,7 +8847,7 @@
         <v>73200000</v>
       </c>
       <c r="K100">
-        <v>1.967213115</v>
+        <v>1.9672131150000001</v>
       </c>
       <c r="M100">
         <v>282604</v>
@@ -8607,16 +8871,18 @@
         <v>22.5</v>
       </c>
       <c r="T100">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U100">
         <v>2.5</v>
       </c>
       <c r="V100">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -8648,7 +8914,7 @@
         <v>77000000</v>
       </c>
       <c r="K101">
-        <v>2.25974026</v>
+        <v>2.2597402600000001</v>
       </c>
       <c r="L101">
         <v>19495</v>
@@ -8657,10 +8923,10 @@
         <v>74619</v>
       </c>
       <c r="N101">
-        <v>26.12605</v>
+        <v>26.126049999999999</v>
       </c>
       <c r="O101">
-        <v>26.12605</v>
+        <v>26.126049999999999</v>
       </c>
       <c r="P101">
         <v>26.41</v>
@@ -8675,16 +8941,18 @@
         <v>22.5</v>
       </c>
       <c r="T101">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U101">
         <v>20</v>
       </c>
       <c r="V101">
+        <f t="shared" si="3"/>
         <v>87.5</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -8707,16 +8975,16 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I102">
         <v>761000000</v>
       </c>
       <c r="J102">
-        <v>50862666.6666666</v>
+        <v>50862666.666666597</v>
       </c>
       <c r="K102">
-        <v>14.96185808</v>
+        <v>14.961858080000001</v>
       </c>
       <c r="L102">
         <v>79158</v>
@@ -8743,16 +9011,18 @@
         <v>5</v>
       </c>
       <c r="T102">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U102">
         <v>2.5</v>
       </c>
       <c r="V102">
-        <v>26.66666666666667</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -8775,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>66.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I103">
         <v>124000000</v>
@@ -8784,7 +9054,7 @@
         <v>55875000</v>
       </c>
       <c r="K103">
-        <v>2.219239374</v>
+        <v>2.2192393739999998</v>
       </c>
       <c r="L103">
         <v>21578</v>
@@ -8811,16 +9081,18 @@
         <v>22.5</v>
       </c>
       <c r="T103">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U103">
         <v>22.5</v>
       </c>
       <c r="V103">
-        <v>66.66666666666667</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8843,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I104">
         <v>625000000</v>
@@ -8861,10 +9133,10 @@
         <v>86650</v>
       </c>
       <c r="N104">
-        <v>77.52452</v>
+        <v>77.524519999999995</v>
       </c>
       <c r="O104">
-        <v>77.52452</v>
+        <v>77.524519999999995</v>
       </c>
       <c r="P104">
         <v>42.07</v>
@@ -8879,16 +9151,18 @@
         <v>25</v>
       </c>
       <c r="T104">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U104">
         <v>10</v>
       </c>
       <c r="V104">
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8920,7 +9194,7 @@
         <v>61000000</v>
       </c>
       <c r="K105">
-        <v>16.18032787</v>
+        <v>16.180327869999999</v>
       </c>
       <c r="L105">
         <v>84526</v>
@@ -8929,10 +9203,10 @@
         <v>142090</v>
       </c>
       <c r="N105">
-        <v>59.48765</v>
+        <v>59.487650000000002</v>
       </c>
       <c r="O105">
-        <v>59.48765</v>
+        <v>59.487650000000002</v>
       </c>
       <c r="P105">
         <v>25.65</v>
@@ -8941,22 +9215,24 @@
         <v>2.5</v>
       </c>
       <c r="R105">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S105">
         <v>5</v>
       </c>
       <c r="T105">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U105">
         <v>20</v>
       </c>
       <c r="V105">
-        <v>44.16666666666667</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>44.166666666666671</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8979,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I106">
         <v>688000000</v>
@@ -8997,10 +9273,10 @@
         <v>122711</v>
       </c>
       <c r="N106">
-        <v>33.7867</v>
+        <v>33.786700000000003</v>
       </c>
       <c r="O106">
-        <v>33.7867</v>
+        <v>33.786700000000003</v>
       </c>
       <c r="P106">
         <v>55.1</v>
@@ -9015,16 +9291,18 @@
         <v>7.5</v>
       </c>
       <c r="T106">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U106">
         <v>2.5</v>
       </c>
       <c r="V106">
+        <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -9047,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I107">
         <v>178000000</v>
@@ -9056,7 +9334,7 @@
         <v>60000000</v>
       </c>
       <c r="K107">
-        <v>2.966666667</v>
+        <v>2.9666666670000001</v>
       </c>
       <c r="M107">
         <v>86573</v>
@@ -9080,16 +9358,18 @@
         <v>20</v>
       </c>
       <c r="T107">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U107">
         <v>2.5</v>
       </c>
       <c r="V107">
-        <v>36.66666666666667</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>36.666666666666671</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -9112,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>57.1428571428571</v>
+        <v>57.142857142857103</v>
       </c>
       <c r="I108">
         <v>204000000</v>
@@ -9121,7 +9401,7 @@
         <v>97000000</v>
       </c>
       <c r="K108">
-        <v>2.103092784</v>
+        <v>2.1030927840000002</v>
       </c>
       <c r="L108">
         <v>86362</v>
@@ -9130,10 +9410,10 @@
         <v>238557</v>
       </c>
       <c r="N108">
-        <v>36.20183</v>
+        <v>36.201830000000001</v>
       </c>
       <c r="O108">
-        <v>36.20183</v>
+        <v>36.201830000000001</v>
       </c>
       <c r="P108">
         <v>62.9</v>
@@ -9148,16 +9428,18 @@
         <v>22.5</v>
       </c>
       <c r="T108">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U108">
         <v>2.5</v>
       </c>
       <c r="V108">
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -9180,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I109">
         <v>292000000</v>
@@ -9189,7 +9471,7 @@
         <v>75750000</v>
       </c>
       <c r="K109">
-        <v>3.854785479</v>
+        <v>3.8547854789999998</v>
       </c>
       <c r="M109">
         <v>31021</v>
@@ -9201,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="P109">
-        <v>33.77</v>
+        <v>33.770000000000003</v>
       </c>
       <c r="Q109">
         <v>12.5</v>
@@ -9213,16 +9495,18 @@
         <v>17.5</v>
       </c>
       <c r="T109">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U109">
         <v>17.5</v>
       </c>
       <c r="V109">
-        <v>49.16666666666667</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>49.166666666666671</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -9254,7 +9538,7 @@
         <v>61490500</v>
       </c>
       <c r="K110">
-        <v>4.246769826</v>
+        <v>4.2467698260000004</v>
       </c>
       <c r="L110">
         <v>69071</v>
@@ -9263,10 +9547,10 @@
         <v>117031</v>
       </c>
       <c r="N110">
-        <v>59.01941</v>
+        <v>59.019410000000001</v>
       </c>
       <c r="O110">
-        <v>59.01941</v>
+        <v>59.019410000000001</v>
       </c>
       <c r="P110">
         <v>67.36</v>
@@ -9275,22 +9559,24 @@
         <v>2.5</v>
       </c>
       <c r="R110">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S110">
         <v>17.5</v>
       </c>
       <c r="T110">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U110">
         <v>2.5</v>
       </c>
       <c r="V110">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -9313,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I111">
         <v>801000000</v>
@@ -9346,16 +9632,18 @@
         <v>7.5</v>
       </c>
       <c r="T111">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U111">
         <v>17.5</v>
       </c>
       <c r="V111">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -9378,16 +9666,16 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>66.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I112">
         <v>541000000</v>
       </c>
       <c r="J112">
-        <v>47857142.8571428</v>
+        <v>47857142.857142799</v>
       </c>
       <c r="K112">
-        <v>11.30447761</v>
+        <v>11.304477609999999</v>
       </c>
       <c r="L112">
         <v>22437</v>
@@ -9396,10 +9684,10 @@
         <v>66841</v>
       </c>
       <c r="N112">
-        <v>33.56772</v>
+        <v>33.567720000000001</v>
       </c>
       <c r="O112">
-        <v>33.56772</v>
+        <v>33.567720000000001</v>
       </c>
       <c r="P112">
         <v>20.97</v>
@@ -9414,16 +9702,18 @@
         <v>7.5</v>
       </c>
       <c r="T112">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U112">
         <v>22.5</v>
       </c>
       <c r="V112">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -9455,7 +9745,7 @@
         <v>56041500</v>
       </c>
       <c r="K113">
-        <v>3.185978248</v>
+        <v>3.1859782480000001</v>
       </c>
       <c r="M113">
         <v>23010</v>
@@ -9479,16 +9769,18 @@
         <v>20</v>
       </c>
       <c r="T113">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U113">
         <v>10</v>
       </c>
       <c r="V113">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -9511,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I114">
         <v>343000000</v>
@@ -9520,7 +9812,7 @@
         <v>87000000</v>
       </c>
       <c r="K114">
-        <v>3.942528736</v>
+        <v>3.9425287359999999</v>
       </c>
       <c r="L114">
         <v>22542</v>
@@ -9529,10 +9821,10 @@
         <v>235078</v>
       </c>
       <c r="N114">
-        <v>9.589157999999999</v>
+        <v>9.5891579999999994</v>
       </c>
       <c r="O114">
-        <v>9.589157999999999</v>
+        <v>9.5891579999999994</v>
       </c>
       <c r="P114">
         <v>44.99</v>
@@ -9547,16 +9839,18 @@
         <v>17.5</v>
       </c>
       <c r="T114">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U114">
         <v>10</v>
       </c>
       <c r="V114">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -9579,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="I115">
         <v>1115000000</v>
@@ -9609,22 +9903,24 @@
         <v>5</v>
       </c>
       <c r="R115">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S115">
         <v>7.5</v>
       </c>
       <c r="T115">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U115">
         <v>17.5</v>
       </c>
       <c r="V115">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -9647,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I116">
         <v>527000000</v>
@@ -9665,10 +9961,10 @@
         <v>197739</v>
       </c>
       <c r="N116">
-        <v>5.624586</v>
+        <v>5.6245859999999999</v>
       </c>
       <c r="O116">
-        <v>5.624586</v>
+        <v>5.6245859999999999</v>
       </c>
       <c r="P116">
         <v>21.64</v>
@@ -9683,16 +9979,18 @@
         <v>7.5</v>
       </c>
       <c r="T116">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U116">
         <v>22.5</v>
       </c>
       <c r="V116">
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -9724,7 +10022,7 @@
         <v>59500000</v>
       </c>
       <c r="K117">
-        <v>2.285714286</v>
+        <v>2.2857142860000002</v>
       </c>
       <c r="M117">
         <v>79</v>
@@ -9748,16 +10046,18 @@
         <v>20</v>
       </c>
       <c r="T117">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U117">
         <v>22.5</v>
       </c>
       <c r="V117">
-        <v>59.16666666666667</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>59.166666666666671</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -9780,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>57.1428571428571</v>
+        <v>57.142857142857103</v>
       </c>
       <c r="I118">
         <v>576000000</v>
@@ -9789,7 +10089,7 @@
         <v>66500000</v>
       </c>
       <c r="K118">
-        <v>8.661654134999999</v>
+        <v>8.6616541349999991</v>
       </c>
       <c r="L118">
         <v>14755</v>
@@ -9816,16 +10116,18 @@
         <v>10</v>
       </c>
       <c r="T118">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U118">
         <v>17.5</v>
       </c>
       <c r="V118">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -9848,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>71.42857142857143</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="I119">
         <v>345000000</v>
@@ -9857,7 +10159,7 @@
         <v>59500000</v>
       </c>
       <c r="K119">
-        <v>5.798319328</v>
+        <v>5.7983193279999998</v>
       </c>
       <c r="L119">
         <v>65443</v>
@@ -9866,10 +10168,10 @@
         <v>213815</v>
       </c>
       <c r="N119">
-        <v>30.6073</v>
+        <v>30.607299999999999</v>
       </c>
       <c r="O119">
-        <v>30.6073</v>
+        <v>30.607299999999999</v>
       </c>
       <c r="P119">
         <v>36.26</v>
@@ -9884,16 +10186,18 @@
         <v>15</v>
       </c>
       <c r="T119">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U119">
         <v>15</v>
       </c>
       <c r="V119">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -9925,7 +10229,7 @@
         <v>69500000</v>
       </c>
       <c r="K120">
-        <v>9.45323741</v>
+        <v>9.4532374099999998</v>
       </c>
       <c r="L120">
         <v>15207</v>
@@ -9934,10 +10238,10 @@
         <v>166026</v>
       </c>
       <c r="N120">
-        <v>9.159409</v>
+        <v>9.1594090000000001</v>
       </c>
       <c r="O120">
-        <v>9.159409</v>
+        <v>9.1594090000000001</v>
       </c>
       <c r="P120">
         <v>17.2</v>
@@ -9952,16 +10256,18 @@
         <v>10</v>
       </c>
       <c r="T120">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U120">
         <v>25</v>
       </c>
       <c r="V120">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -10002,16 +10308,18 @@
         <v>2.5</v>
       </c>
       <c r="T121">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U121">
         <v>0</v>
       </c>
       <c r="V121">
-        <v>19.16666666666667</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -10052,10 +10360,10 @@
         <v>519315</v>
       </c>
       <c r="N122">
-        <v>19.99133</v>
+        <v>19.991330000000001</v>
       </c>
       <c r="O122">
-        <v>19.99133</v>
+        <v>19.991330000000001</v>
       </c>
       <c r="P122">
         <v>13.5</v>
@@ -10070,16 +10378,18 @@
         <v>22.5</v>
       </c>
       <c r="T122">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U122">
         <v>25</v>
       </c>
       <c r="V122">
-        <v>86.66666666666667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -10102,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I123">
         <v>157000000</v>
@@ -10111,7 +10421,7 @@
         <v>69000000</v>
       </c>
       <c r="K123">
-        <v>2.275362319</v>
+        <v>2.2753623190000001</v>
       </c>
       <c r="L123">
         <v>30366</v>
@@ -10120,13 +10430,13 @@
         <v>121426</v>
       </c>
       <c r="N123">
-        <v>25.00782</v>
+        <v>25.007819999999999</v>
       </c>
       <c r="O123">
-        <v>25.00782</v>
+        <v>25.007819999999999</v>
       </c>
       <c r="P123">
-        <v>33.98</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="Q123">
         <v>12.5</v>
@@ -10138,16 +10448,18 @@
         <v>22.5</v>
       </c>
       <c r="T123">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U123">
         <v>15</v>
       </c>
       <c r="V123">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -10170,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>57.1428571428571</v>
+        <v>57.142857142857103</v>
       </c>
       <c r="I124">
         <v>471000000</v>
@@ -10179,7 +10491,7 @@
         <v>69500000</v>
       </c>
       <c r="K124">
-        <v>6.776978417</v>
+        <v>6.7769784169999996</v>
       </c>
       <c r="L124">
         <v>18593</v>
@@ -10206,16 +10518,18 @@
         <v>12.5</v>
       </c>
       <c r="T124">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U124">
         <v>12.5</v>
       </c>
       <c r="V124">
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -10238,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>66.66666666666666</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="I125">
         <v>818000000</v>
@@ -10274,16 +10588,18 @@
         <v>7.5</v>
       </c>
       <c r="T125">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U125">
         <v>2.5</v>
       </c>
       <c r="V125">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -10306,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I126">
         <v>155420000</v>
@@ -10315,7 +10631,7 @@
         <v>61123250</v>
       </c>
       <c r="K126">
-        <v>2.542731285</v>
+        <v>2.5427312849999999</v>
       </c>
       <c r="L126">
         <v>29885</v>
@@ -10324,10 +10640,10 @@
         <v>205512</v>
       </c>
       <c r="N126">
-        <v>14.54173</v>
+        <v>14.541729999999999</v>
       </c>
       <c r="O126">
-        <v>14.54173</v>
+        <v>14.541729999999999</v>
       </c>
       <c r="P126">
         <v>35.4</v>
@@ -10342,16 +10658,18 @@
         <v>20</v>
       </c>
       <c r="T126">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U126">
         <v>15</v>
       </c>
       <c r="V126">
-        <v>54.16666666666667</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>54.166666666666671</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -10374,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I127">
         <v>920000000</v>
@@ -10383,7 +10701,7 @@
         <v>88000000</v>
       </c>
       <c r="K127">
-        <v>10.45454545</v>
+        <v>10.454545449999999</v>
       </c>
       <c r="L127">
         <v>79415</v>
@@ -10392,10 +10710,10 @@
         <v>331854</v>
       </c>
       <c r="N127">
-        <v>23.9307</v>
+        <v>23.930700000000002</v>
       </c>
       <c r="O127">
-        <v>23.9307</v>
+        <v>23.930700000000002</v>
       </c>
       <c r="P127">
         <v>21.9</v>
@@ -10410,16 +10728,18 @@
         <v>7.5</v>
       </c>
       <c r="T127">
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="U127">
         <v>22.5</v>
       </c>
       <c r="V127">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -10451,7 +10771,7 @@
         <v>90976013.5</v>
       </c>
       <c r="K128">
-        <v>1.705815457</v>
+        <v>1.7058154569999999</v>
       </c>
       <c r="L128">
         <v>52394</v>
@@ -10472,22 +10792,24 @@
         <v>12.5</v>
       </c>
       <c r="R128">
-        <v>18.33333333333334</v>
+        <v>18.333333333333339</v>
       </c>
       <c r="S128">
         <v>22.5</v>
       </c>
       <c r="T128">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U128">
         <v>2.5</v>
       </c>
       <c r="V128">
-        <v>55.83333333333334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>55.833333333333343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -10510,16 +10832,16 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I129">
         <v>17000000</v>
       </c>
       <c r="J129">
-        <v>54666666.6666666</v>
+        <v>54666666.666666597</v>
       </c>
       <c r="K129">
-        <v>0.31097561</v>
+        <v>0.31097561000000001</v>
       </c>
       <c r="M129">
         <v>2684</v>
@@ -10543,16 +10865,18 @@
         <v>25</v>
       </c>
       <c r="T129">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U129">
         <v>2.5</v>
       </c>
       <c r="V129">
-        <v>34.16666666666667</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22">
+        <f t="shared" si="3"/>
+        <v>34.166666666666671</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -10584,7 +10908,7 @@
         <v>66000000</v>
       </c>
       <c r="K130">
-        <v>1.696969697</v>
+        <v>1.6969696970000001</v>
       </c>
       <c r="L130">
         <v>4155</v>
@@ -10593,10 +10917,10 @@
         <v>98379</v>
       </c>
       <c r="N130">
-        <v>4.223462</v>
+        <v>4.2234619999999996</v>
       </c>
       <c r="O130">
-        <v>4.223462</v>
+        <v>4.2234619999999996</v>
       </c>
       <c r="P130">
         <v>24.15</v>
@@ -10611,16 +10935,18 @@
         <v>22.5</v>
       </c>
       <c r="T130">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U130">
         <v>20</v>
       </c>
       <c r="V130">
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -10636,8 +10962,11 @@
       <c r="E131" t="s">
         <v>350</v>
       </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
       <c r="H131">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I131">
         <v>580000000</v>
@@ -10646,7 +10975,7 @@
         <v>61500000</v>
       </c>
       <c r="K131">
-        <v>9.430894308999999</v>
+        <v>9.4308943089999993</v>
       </c>
       <c r="L131">
         <v>32652</v>
@@ -10655,10 +10984,10 @@
         <v>95169</v>
       </c>
       <c r="N131">
-        <v>34.30949</v>
+        <v>34.309489999999997</v>
       </c>
       <c r="O131">
-        <v>34.30949</v>
+        <v>34.309489999999997</v>
       </c>
       <c r="P131">
         <v>10.6</v>
@@ -10673,16 +11002,18 @@
         <v>10</v>
       </c>
       <c r="T131">
-        <v>12.5</v>
+        <f t="shared" ref="T131:T194" si="4">IF(G131,0,12.5)</f>
+        <v>0</v>
       </c>
       <c r="U131">
         <v>25</v>
       </c>
       <c r="V131">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22">
+        <f t="shared" ref="V131:V194" si="5">SUM(Q131:U131)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -10705,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I132">
         <v>1018000000</v>
@@ -10714,7 +11045,7 @@
         <v>65000000</v>
       </c>
       <c r="K132">
-        <v>15.66153846</v>
+        <v>15.661538459999999</v>
       </c>
       <c r="L132">
         <v>32258</v>
@@ -10723,10 +11054,10 @@
         <v>85177</v>
       </c>
       <c r="N132">
-        <v>37.87173</v>
+        <v>37.871729999999999</v>
       </c>
       <c r="O132">
-        <v>37.87173</v>
+        <v>37.871729999999999</v>
       </c>
       <c r="P132">
         <v>48.25</v>
@@ -10741,16 +11072,18 @@
         <v>5</v>
       </c>
       <c r="T132">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U132">
         <v>7.5</v>
       </c>
       <c r="V132">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -10773,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I133">
         <v>1526000000</v>
@@ -10791,10 +11124,10 @@
         <v>126850</v>
       </c>
       <c r="N133">
-        <v>31.73985</v>
+        <v>31.739850000000001</v>
       </c>
       <c r="O133">
-        <v>31.73985</v>
+        <v>31.739850000000001</v>
       </c>
       <c r="P133">
         <v>34.94</v>
@@ -10809,16 +11142,18 @@
         <v>5</v>
       </c>
       <c r="T133">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U133">
         <v>15</v>
       </c>
       <c r="V133">
+        <f t="shared" si="5"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -10834,6 +11169,9 @@
       <c r="E134" t="s">
         <v>353</v>
       </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
       <c r="H134">
         <v>27.27272727272727</v>
       </c>
@@ -10853,10 +11191,10 @@
         <v>20160</v>
       </c>
       <c r="N134">
-        <v>53.21429</v>
+        <v>53.214289999999998</v>
       </c>
       <c r="O134">
-        <v>53.21429</v>
+        <v>53.214289999999998</v>
       </c>
       <c r="P134">
         <v>65.77</v>
@@ -10865,22 +11203,24 @@
         <v>2.5</v>
       </c>
       <c r="R134">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S134">
         <v>25</v>
       </c>
       <c r="T134">
-        <v>12.5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U134">
         <v>2.5</v>
       </c>
       <c r="V134">
-        <v>59.16666666666667</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -10912,7 +11252,7 @@
         <v>62000000</v>
       </c>
       <c r="K135">
-        <v>2.85483871</v>
+        <v>2.8548387100000001</v>
       </c>
       <c r="L135">
         <v>6458</v>
@@ -10921,10 +11261,10 @@
         <v>12753</v>
       </c>
       <c r="N135">
-        <v>50.63907</v>
+        <v>50.639069999999997</v>
       </c>
       <c r="O135">
-        <v>50.63907</v>
+        <v>50.639069999999997</v>
       </c>
       <c r="P135">
         <v>45.07</v>
@@ -10933,22 +11273,24 @@
         <v>5</v>
       </c>
       <c r="R135">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S135">
         <v>20</v>
       </c>
       <c r="T135">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U135">
         <v>10</v>
       </c>
       <c r="V135">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -10971,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I136">
         <v>1043000000</v>
@@ -10980,7 +11322,7 @@
         <v>62500000</v>
       </c>
       <c r="K136">
-        <v>16.688</v>
+        <v>16.687999999999999</v>
       </c>
       <c r="L136">
         <v>22089</v>
@@ -11007,16 +11349,18 @@
         <v>5</v>
       </c>
       <c r="T136">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U136">
         <v>15</v>
       </c>
       <c r="V136">
+        <f t="shared" si="5"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -11048,7 +11392,7 @@
         <v>45000000</v>
       </c>
       <c r="K137">
-        <v>9.444444444</v>
+        <v>9.4444444440000002</v>
       </c>
       <c r="L137">
         <v>27205</v>
@@ -11075,16 +11419,18 @@
         <v>10</v>
       </c>
       <c r="T137">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U137">
         <v>10</v>
       </c>
       <c r="V137">
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -11107,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I138">
         <v>165000000</v>
@@ -11116,7 +11462,7 @@
         <v>68250000</v>
       </c>
       <c r="K138">
-        <v>2.417582418</v>
+        <v>2.4175824179999998</v>
       </c>
       <c r="L138">
         <v>39539</v>
@@ -11125,10 +11471,10 @@
         <v>220205</v>
       </c>
       <c r="N138">
-        <v>17.95554</v>
+        <v>17.955539999999999</v>
       </c>
       <c r="O138">
-        <v>17.95554</v>
+        <v>17.955539999999999</v>
       </c>
       <c r="P138">
         <v>41.48</v>
@@ -11143,16 +11489,18 @@
         <v>20</v>
       </c>
       <c r="T138">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U138">
         <v>12.5</v>
       </c>
       <c r="V138">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -11184,7 +11532,7 @@
         <v>69500000</v>
       </c>
       <c r="K139">
-        <v>6.978417266</v>
+        <v>6.9784172660000001</v>
       </c>
       <c r="L139">
         <v>18700</v>
@@ -11193,10 +11541,10 @@
         <v>65095</v>
       </c>
       <c r="N139">
-        <v>28.72724</v>
+        <v>28.727239999999998</v>
       </c>
       <c r="O139">
-        <v>28.72724</v>
+        <v>28.727239999999998</v>
       </c>
       <c r="P139">
         <v>26.16</v>
@@ -11211,16 +11559,18 @@
         <v>12.5</v>
       </c>
       <c r="T139">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U139">
         <v>20</v>
       </c>
       <c r="V139">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -11243,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I140">
         <v>218000000</v>
@@ -11261,10 +11611,10 @@
         <v>198792</v>
       </c>
       <c r="N140">
-        <v>19.21858</v>
+        <v>19.218579999999999</v>
       </c>
       <c r="O140">
-        <v>19.21858</v>
+        <v>19.218579999999999</v>
       </c>
       <c r="P140">
         <v>31.13</v>
@@ -11279,16 +11629,18 @@
         <v>20</v>
       </c>
       <c r="T140">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U140">
         <v>17.5</v>
       </c>
       <c r="V140">
-        <v>49.16666666666667</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>49.166666666666671</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -11320,7 +11672,7 @@
         <v>60000000</v>
       </c>
       <c r="K141">
-        <v>6.183333333</v>
+        <v>6.1833333330000002</v>
       </c>
       <c r="L141">
         <v>21933</v>
@@ -11347,16 +11699,18 @@
         <v>12.5</v>
       </c>
       <c r="T141">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U141">
         <v>2.5</v>
       </c>
       <c r="V141">
-        <v>26.66666666666667</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -11388,7 +11742,7 @@
         <v>55793500</v>
       </c>
       <c r="K142">
-        <v>9.68234651</v>
+        <v>9.6823465100000004</v>
       </c>
       <c r="L142">
         <v>23130</v>
@@ -11415,16 +11769,18 @@
         <v>10</v>
       </c>
       <c r="T142">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U142">
         <v>10</v>
       </c>
       <c r="V142">
-        <v>31.66666666666667</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -11480,16 +11836,18 @@
         <v>22.5</v>
       </c>
       <c r="T143">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U143">
         <v>17.5</v>
       </c>
       <c r="V143">
-        <v>56.66666666666667</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>56.666666666666671</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -11512,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I144">
         <v>105740000</v>
@@ -11530,10 +11888,10 @@
         <v>87058</v>
       </c>
       <c r="N144">
-        <v>59.23637</v>
+        <v>59.236370000000001</v>
       </c>
       <c r="O144">
-        <v>59.23637</v>
+        <v>59.236370000000001</v>
       </c>
       <c r="P144">
         <v>51</v>
@@ -11542,22 +11900,24 @@
         <v>12.5</v>
       </c>
       <c r="R144">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S144">
         <v>22.5</v>
       </c>
       <c r="T144">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U144">
         <v>2.5</v>
       </c>
       <c r="V144">
-        <v>54.16666666666667</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>54.166666666666671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -11580,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I145">
         <v>115000000</v>
@@ -11589,7 +11949,7 @@
         <v>60000000</v>
       </c>
       <c r="K145">
-        <v>1.916666667</v>
+        <v>1.9166666670000001</v>
       </c>
       <c r="M145">
         <v>-82939</v>
@@ -11613,16 +11973,18 @@
         <v>22.5</v>
       </c>
       <c r="T145">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U145">
         <v>10</v>
       </c>
       <c r="V145">
-        <v>59.16666666666667</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>59.166666666666671</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -11654,7 +12016,7 @@
         <v>64000000</v>
       </c>
       <c r="K146">
-        <v>4.65875</v>
+        <v>4.6587500000000004</v>
       </c>
       <c r="M146">
         <v>-1334</v>
@@ -11678,16 +12040,18 @@
         <v>17.5</v>
       </c>
       <c r="T146">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U146">
         <v>20</v>
       </c>
       <c r="V146">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -11719,7 +12083,7 @@
         <v>80500000</v>
       </c>
       <c r="K147">
-        <v>6.459627329</v>
+        <v>6.4596273289999999</v>
       </c>
       <c r="L147">
         <v>22702</v>
@@ -11746,16 +12110,18 @@
         <v>12.5</v>
       </c>
       <c r="T147">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U147">
         <v>2.5</v>
       </c>
       <c r="V147">
-        <v>24.16666666666667</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>24.166666666666668</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -11796,10 +12162,10 @@
         <v>127243</v>
       </c>
       <c r="N148">
-        <v>14.56112</v>
+        <v>14.561120000000001</v>
       </c>
       <c r="O148">
-        <v>14.56112</v>
+        <v>14.561120000000001</v>
       </c>
       <c r="P148">
         <v>39.86</v>
@@ -11814,16 +12180,18 @@
         <v>12.5</v>
       </c>
       <c r="T148">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U148">
         <v>12.5</v>
       </c>
       <c r="V148">
-        <v>56.66666666666667</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>56.666666666666671</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -11855,7 +12223,7 @@
         <v>73600000</v>
       </c>
       <c r="K149">
-        <v>9.510869565</v>
+        <v>9.5108695650000001</v>
       </c>
       <c r="L149">
         <v>50370</v>
@@ -11864,10 +12232,10 @@
         <v>504976</v>
       </c>
       <c r="N149">
-        <v>9.974731</v>
+        <v>9.9747310000000002</v>
       </c>
       <c r="O149">
-        <v>9.974731</v>
+        <v>9.9747310000000002</v>
       </c>
       <c r="P149">
         <v>23.11</v>
@@ -11882,16 +12250,18 @@
         <v>10</v>
       </c>
       <c r="T149">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U149">
         <v>20</v>
       </c>
       <c r="V149">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -11914,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I150">
         <v>639000000</v>
@@ -11950,16 +12320,18 @@
         <v>12.5</v>
       </c>
       <c r="T150">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U150">
         <v>2.5</v>
       </c>
       <c r="V150">
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -11991,7 +12363,7 @@
         <v>57587500</v>
       </c>
       <c r="K151">
-        <v>4.996344693</v>
+        <v>4.9963446930000002</v>
       </c>
       <c r="M151">
         <v>-29053</v>
@@ -12015,16 +12387,18 @@
         <v>15</v>
       </c>
       <c r="T151">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U151">
         <v>20</v>
       </c>
       <c r="V151">
-        <v>49.16666666666667</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>49.166666666666671</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -12047,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="I152">
         <v>214000000</v>
@@ -12056,7 +12430,7 @@
         <v>66500000</v>
       </c>
       <c r="K152">
-        <v>3.218045113</v>
+        <v>3.2180451130000001</v>
       </c>
       <c r="L152">
         <v>10808</v>
@@ -12065,10 +12439,10 @@
         <v>91633</v>
       </c>
       <c r="N152">
-        <v>11.79488</v>
+        <v>11.794879999999999</v>
       </c>
       <c r="O152">
-        <v>11.79488</v>
+        <v>11.794879999999999</v>
       </c>
       <c r="P152">
         <v>28.4</v>
@@ -12083,16 +12457,18 @@
         <v>20</v>
       </c>
       <c r="T152">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U152">
         <v>17.5</v>
       </c>
       <c r="V152">
-        <v>49.16666666666667</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>49.166666666666671</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -12124,7 +12500,7 @@
         <v>59884500</v>
       </c>
       <c r="K153">
-        <v>5.577820638</v>
+        <v>5.5778206380000004</v>
       </c>
       <c r="L153">
         <v>15320</v>
@@ -12151,16 +12527,18 @@
         <v>15</v>
       </c>
       <c r="T153">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U153">
         <v>2.5</v>
       </c>
       <c r="V153">
-        <v>26.66666666666667</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -12183,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I154">
         <v>80000000</v>
@@ -12201,10 +12579,10 @@
         <v>66893</v>
       </c>
       <c r="N154">
-        <v>14.96121</v>
+        <v>14.961209999999999</v>
       </c>
       <c r="O154">
-        <v>14.96121</v>
+        <v>14.961209999999999</v>
       </c>
       <c r="P154">
         <v>39.97</v>
@@ -12219,16 +12597,18 @@
         <v>25</v>
       </c>
       <c r="T154">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U154">
         <v>12.5</v>
       </c>
       <c r="V154">
-        <v>56.66666666666667</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>56.666666666666671</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -12251,16 +12631,16 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I155">
         <v>338000000</v>
       </c>
       <c r="J155">
-        <v>72166666.6666666</v>
+        <v>72166666.666666597</v>
       </c>
       <c r="K155">
-        <v>4.683602771</v>
+        <v>4.6836027710000003</v>
       </c>
       <c r="L155">
         <v>19895</v>
@@ -12287,16 +12667,18 @@
         <v>17.5</v>
       </c>
       <c r="T155">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U155">
         <v>10</v>
       </c>
       <c r="V155">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -12325,10 +12707,10 @@
         <v>155319158</v>
       </c>
       <c r="J156">
-        <v>48820571.4285714</v>
+        <v>48820571.428571403</v>
       </c>
       <c r="K156">
-        <v>3.181428514</v>
+        <v>3.1814285139999998</v>
       </c>
       <c r="L156">
         <v>15425</v>
@@ -12355,16 +12737,18 @@
         <v>20</v>
       </c>
       <c r="T156">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U156">
         <v>2.5</v>
       </c>
       <c r="V156">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -12387,16 +12771,16 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I157">
         <v>154000000</v>
       </c>
       <c r="J157">
-        <v>58833333.3333333</v>
+        <v>58833333.333333299</v>
       </c>
       <c r="K157">
-        <v>2.617563739</v>
+        <v>2.6175637389999999</v>
       </c>
       <c r="L157">
         <v>30445</v>
@@ -12405,10 +12789,10 @@
         <v>124246</v>
       </c>
       <c r="N157">
-        <v>24.50381</v>
+        <v>24.503810000000001</v>
       </c>
       <c r="O157">
-        <v>24.50381</v>
+        <v>24.503810000000001</v>
       </c>
       <c r="P157">
         <v>54.69</v>
@@ -12423,16 +12807,18 @@
         <v>20</v>
       </c>
       <c r="T157">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U157">
         <v>2.5</v>
       </c>
       <c r="V157">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -12455,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I158">
         <v>242847032</v>
@@ -12464,7 +12850,7 @@
         <v>55035309.5</v>
       </c>
       <c r="K158">
-        <v>4.412567753</v>
+        <v>4.4125677530000003</v>
       </c>
       <c r="L158">
         <v>6225</v>
@@ -12473,10 +12859,10 @@
         <v>-10105</v>
       </c>
       <c r="N158">
-        <v>-61.6032</v>
+        <v>-61.603200000000001</v>
       </c>
       <c r="O158">
-        <v>61.6032</v>
+        <v>61.603200000000001</v>
       </c>
       <c r="P158">
         <v>9.93</v>
@@ -12485,22 +12871,24 @@
         <v>5</v>
       </c>
       <c r="R158">
-        <v>18.33333333333334</v>
+        <v>18.333333333333339</v>
       </c>
       <c r="S158">
         <v>17.5</v>
       </c>
       <c r="T158">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U158">
         <v>25</v>
       </c>
       <c r="V158">
-        <v>65.83333333333334</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>65.833333333333343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -12523,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I159">
         <v>678000000</v>
@@ -12532,7 +12920,7 @@
         <v>67500000</v>
       </c>
       <c r="K159">
-        <v>10.04444444</v>
+        <v>10.044444439999999</v>
       </c>
       <c r="L159">
         <v>7854</v>
@@ -12559,16 +12947,18 @@
         <v>7.5</v>
       </c>
       <c r="T159">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U159">
         <v>2.5</v>
       </c>
       <c r="V159">
-        <v>21.66666666666667</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -12591,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I160">
         <v>856000000</v>
@@ -12609,10 +12999,10 @@
         <v>34495</v>
       </c>
       <c r="N160">
-        <v>76.0603</v>
+        <v>76.060299999999998</v>
       </c>
       <c r="O160">
-        <v>76.0603</v>
+        <v>76.060299999999998</v>
       </c>
       <c r="P160">
         <v>39.14</v>
@@ -12627,16 +13017,18 @@
         <v>5</v>
       </c>
       <c r="T160">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U160">
         <v>12.5</v>
       </c>
       <c r="V160">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -12668,7 +13060,7 @@
         <v>45367500</v>
       </c>
       <c r="K161">
-        <v>2.873598942</v>
+        <v>2.8735989420000001</v>
       </c>
       <c r="L161">
         <v>17201</v>
@@ -12677,10 +13069,10 @@
         <v>132636</v>
       </c>
       <c r="N161">
-        <v>12.96858</v>
+        <v>12.968579999999999</v>
       </c>
       <c r="O161">
-        <v>12.96858</v>
+        <v>12.968579999999999</v>
       </c>
       <c r="P161">
         <v>46.72</v>
@@ -12695,16 +13087,18 @@
         <v>20</v>
       </c>
       <c r="T161">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U161">
         <v>10</v>
       </c>
       <c r="V161">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -12727,7 +13121,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I162">
         <v>321000000</v>
@@ -12736,7 +13130,7 @@
         <v>167500000</v>
       </c>
       <c r="K162">
-        <v>1.91641791</v>
+        <v>1.9164179100000001</v>
       </c>
       <c r="L162">
         <v>7092</v>
@@ -12745,10 +13139,10 @@
         <v>45790</v>
       </c>
       <c r="N162">
-        <v>15.4881</v>
+        <v>15.488099999999999</v>
       </c>
       <c r="O162">
-        <v>15.4881</v>
+        <v>15.488099999999999</v>
       </c>
       <c r="P162">
         <v>38.1</v>
@@ -12763,16 +13157,18 @@
         <v>22.5</v>
       </c>
       <c r="T162">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U162">
         <v>12.5</v>
       </c>
       <c r="V162">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -12792,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="I163">
         <v>254345000</v>
@@ -12801,7 +13197,7 @@
         <v>22923500</v>
       </c>
       <c r="K163">
-        <v>11.09538247</v>
+        <v>11.095382470000001</v>
       </c>
       <c r="M163">
         <v>-81926</v>
@@ -12825,16 +13221,18 @@
         <v>7.5</v>
       </c>
       <c r="T163">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U163">
         <v>2.5</v>
       </c>
       <c r="V163">
-        <v>16.66666666666667</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -12857,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I164">
         <v>114044000</v>
@@ -12890,16 +13288,18 @@
         <v>22.5</v>
       </c>
       <c r="T164">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U164">
         <v>17.5</v>
       </c>
       <c r="V164">
-        <v>59.16666666666667</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>59.166666666666671</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -12922,7 +13322,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I165">
         <v>155000000</v>
@@ -12931,7 +13331,7 @@
         <v>47750000</v>
       </c>
       <c r="K165">
-        <v>3.246073298</v>
+        <v>3.2460732980000002</v>
       </c>
       <c r="L165">
         <v>25956</v>
@@ -12940,10 +13340,10 @@
         <v>-12512</v>
       </c>
       <c r="N165">
-        <v>-207.449</v>
+        <v>-207.44900000000001</v>
       </c>
       <c r="O165">
-        <v>207.449</v>
+        <v>207.44900000000001</v>
       </c>
       <c r="P165">
         <v>62.79</v>
@@ -12958,16 +13358,18 @@
         <v>20</v>
       </c>
       <c r="T165">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U165">
         <v>2.5</v>
       </c>
       <c r="V165">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -12990,16 +13392,16 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>28.57142857142857</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="I166">
         <v>372000000</v>
       </c>
       <c r="J166">
-        <v>79333333.3333333</v>
+        <v>79333333.333333299</v>
       </c>
       <c r="K166">
-        <v>4.68907563</v>
+        <v>4.6890756299999996</v>
       </c>
       <c r="L166">
         <v>38371</v>
@@ -13008,10 +13410,10 @@
         <v>49787</v>
       </c>
       <c r="N166">
-        <v>77.07032</v>
+        <v>77.070319999999995</v>
       </c>
       <c r="O166">
-        <v>77.07032</v>
+        <v>77.070319999999995</v>
       </c>
       <c r="P166">
         <v>43.41</v>
@@ -13026,16 +13428,18 @@
         <v>17.5</v>
       </c>
       <c r="T166">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U166">
         <v>10</v>
       </c>
       <c r="V166">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -13067,7 +13471,7 @@
         <v>69000000</v>
       </c>
       <c r="K167">
-        <v>3.014492754</v>
+        <v>3.0144927539999999</v>
       </c>
       <c r="L167">
         <v>5941</v>
@@ -13076,13 +13480,13 @@
         <v>112304</v>
       </c>
       <c r="N167">
-        <v>5.290105</v>
+        <v>5.2901049999999996</v>
       </c>
       <c r="O167">
-        <v>5.290105</v>
+        <v>5.2901049999999996</v>
       </c>
       <c r="P167">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="Q167">
         <v>12.5</v>
@@ -13094,16 +13498,18 @@
         <v>20</v>
       </c>
       <c r="T167">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U167">
         <v>12.5</v>
       </c>
       <c r="V167">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -13159,16 +13565,18 @@
         <v>12.5</v>
       </c>
       <c r="T168">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U168">
         <v>12.5</v>
       </c>
       <c r="V168">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -13191,7 +13599,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="I169">
         <v>252371000</v>
@@ -13200,7 +13608,7 @@
         <v>58834000</v>
       </c>
       <c r="K169">
-        <v>4.289543461</v>
+        <v>4.2895434610000001</v>
       </c>
       <c r="L169">
         <v>4511</v>
@@ -13227,16 +13635,18 @@
         <v>17.5</v>
       </c>
       <c r="T169">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U169">
         <v>10</v>
       </c>
       <c r="V169">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -13268,7 +13678,7 @@
         <v>53000000</v>
       </c>
       <c r="K170">
-        <v>3.037735849</v>
+        <v>3.0377358490000002</v>
       </c>
       <c r="L170">
         <v>1305</v>
@@ -13295,16 +13705,18 @@
         <v>20</v>
       </c>
       <c r="T170">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U170">
         <v>2.5</v>
       </c>
       <c r="V170">
+        <f t="shared" si="5"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -13327,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I171">
         <v>214000000</v>
@@ -13336,7 +13748,7 @@
         <v>83500000</v>
       </c>
       <c r="K171">
-        <v>2.562874251</v>
+        <v>2.5628742510000002</v>
       </c>
       <c r="L171">
         <v>14387</v>
@@ -13345,10 +13757,10 @@
         <v>297587</v>
       </c>
       <c r="N171">
-        <v>4.834553</v>
+        <v>4.8345529999999997</v>
       </c>
       <c r="O171">
-        <v>4.834553</v>
+        <v>4.8345529999999997</v>
       </c>
       <c r="P171">
         <v>26.28</v>
@@ -13363,16 +13775,18 @@
         <v>20</v>
       </c>
       <c r="T171">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U171">
         <v>20</v>
       </c>
       <c r="V171">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -13395,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I172">
         <v>375660000</v>
@@ -13404,7 +13818,7 @@
         <v>75713000</v>
       </c>
       <c r="K172">
-        <v>4.961631424</v>
+        <v>4.9616314240000001</v>
       </c>
       <c r="L172">
         <v>6701</v>
@@ -13431,16 +13845,18 @@
         <v>15</v>
       </c>
       <c r="T172">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U172">
         <v>12.5</v>
       </c>
       <c r="V172">
-        <v>39.16666666666667</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>39.166666666666671</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -13463,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I173">
         <v>207000000</v>
@@ -13481,10 +13897,10 @@
         <v>57882</v>
       </c>
       <c r="N173">
-        <v>33.69441</v>
+        <v>33.694409999999998</v>
       </c>
       <c r="O173">
-        <v>33.69441</v>
+        <v>33.694409999999998</v>
       </c>
       <c r="P173">
         <v>47.05</v>
@@ -13499,16 +13915,18 @@
         <v>20</v>
       </c>
       <c r="T173">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U173">
         <v>7.5</v>
       </c>
       <c r="V173">
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -13531,7 +13949,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="I174">
         <v>265713254</v>
@@ -13549,10 +13967,10 @@
         <v>160270</v>
       </c>
       <c r="N174">
-        <v>4.925438</v>
+        <v>4.9254379999999998</v>
       </c>
       <c r="O174">
-        <v>4.925438</v>
+        <v>4.9254379999999998</v>
       </c>
       <c r="P174">
         <v>30.17</v>
@@ -13567,16 +13985,18 @@
         <v>20</v>
       </c>
       <c r="T174">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U174">
         <v>17.5</v>
       </c>
       <c r="V174">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -13599,7 +14019,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I175">
         <v>999000000</v>
@@ -13608,7 +14028,7 @@
         <v>82500000</v>
       </c>
       <c r="K175">
-        <v>12.10909091</v>
+        <v>12.109090910000001</v>
       </c>
       <c r="L175">
         <v>36000</v>
@@ -13617,34 +14037,36 @@
         <v>63476</v>
       </c>
       <c r="N175">
-        <v>56.71435</v>
+        <v>56.714350000000003</v>
       </c>
       <c r="O175">
-        <v>56.71435</v>
+        <v>56.714350000000003</v>
       </c>
       <c r="P175">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="Q175">
         <v>5</v>
       </c>
       <c r="R175">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="S175">
         <v>7.5</v>
       </c>
       <c r="T175">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U175">
         <v>22.5</v>
       </c>
       <c r="V175">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -13667,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I176">
         <v>988000000</v>
@@ -13676,7 +14098,7 @@
         <v>59500000</v>
       </c>
       <c r="K176">
-        <v>16.60504202</v>
+        <v>16.605042019999999</v>
       </c>
       <c r="L176">
         <v>25185</v>
@@ -13703,16 +14125,18 @@
         <v>5</v>
       </c>
       <c r="T176">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U176">
         <v>20</v>
       </c>
       <c r="V176">
+        <f t="shared" si="5"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -13741,10 +14165,10 @@
         <v>211000000</v>
       </c>
       <c r="J177">
-        <v>72666666.6666666</v>
+        <v>72666666.666666597</v>
       </c>
       <c r="K177">
-        <v>2.903669725</v>
+        <v>2.9036697249999999</v>
       </c>
       <c r="M177">
         <v>148834</v>
@@ -13768,16 +14192,18 @@
         <v>20</v>
       </c>
       <c r="T177">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U177">
         <v>15</v>
       </c>
       <c r="V177">
-        <v>51.66666666666667</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>51.666666666666671</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -13824,7 +14250,7 @@
         <v>15.53769</v>
       </c>
       <c r="P178">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="Q178">
         <v>15</v>
@@ -13836,16 +14262,18 @@
         <v>22.5</v>
       </c>
       <c r="T178">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U178">
         <v>2.5</v>
       </c>
       <c r="V178">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -13868,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I179">
         <v>168606000</v>
@@ -13877,7 +14305,7 @@
         <v>70144000</v>
       </c>
       <c r="K179">
-        <v>2.403712363</v>
+        <v>2.4037123629999999</v>
       </c>
       <c r="L179">
         <v>9886</v>
@@ -13886,10 +14314,10 @@
         <v>84889</v>
       </c>
       <c r="N179">
-        <v>11.6458</v>
+        <v>11.645799999999999</v>
       </c>
       <c r="O179">
-        <v>11.6458</v>
+        <v>11.645799999999999</v>
       </c>
       <c r="P179">
         <v>34.64</v>
@@ -13904,16 +14332,18 @@
         <v>20</v>
       </c>
       <c r="T179">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U179">
         <v>15</v>
       </c>
       <c r="V179">
-        <v>46.66666666666667</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>46.666666666666671</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -13945,7 +14375,7 @@
         <v>418500000</v>
       </c>
       <c r="K180">
-        <v>0.812425329</v>
+        <v>0.81242532899999997</v>
       </c>
       <c r="L180">
         <v>25114</v>
@@ -13972,16 +14402,18 @@
         <v>25</v>
       </c>
       <c r="T180">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U180">
         <v>2.5</v>
       </c>
       <c r="V180">
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -14004,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I181">
         <v>84000000</v>
@@ -14022,10 +14454,10 @@
         <v>40100</v>
       </c>
       <c r="N181">
-        <v>6.793017</v>
+        <v>6.7930169999999999</v>
       </c>
       <c r="O181">
-        <v>6.793017</v>
+        <v>6.7930169999999999</v>
       </c>
       <c r="P181">
         <v>71.73</v>
@@ -14040,16 +14472,18 @@
         <v>25</v>
       </c>
       <c r="T181">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U181">
         <v>2.5</v>
       </c>
       <c r="V181">
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -14072,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I182">
         <v>390000000</v>
@@ -14081,7 +14515,7 @@
         <v>89000000</v>
       </c>
       <c r="K182">
-        <v>4.382022472</v>
+        <v>4.3820224720000001</v>
       </c>
       <c r="L182">
         <v>20451</v>
@@ -14090,10 +14524,10 @@
         <v>267001</v>
       </c>
       <c r="N182">
-        <v>7.659522</v>
+        <v>7.6595219999999999</v>
       </c>
       <c r="O182">
-        <v>7.659522</v>
+        <v>7.6595219999999999</v>
       </c>
       <c r="P182">
         <v>45.07</v>
@@ -14108,16 +14542,18 @@
         <v>17.5</v>
       </c>
       <c r="T182">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U182">
         <v>10</v>
       </c>
       <c r="V182">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -14149,7 +14585,7 @@
         <v>43294250</v>
       </c>
       <c r="K183">
-        <v>5.774438869</v>
+        <v>5.7744388689999999</v>
       </c>
       <c r="L183">
         <v>18334</v>
@@ -14176,16 +14612,18 @@
         <v>15</v>
       </c>
       <c r="T183">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U183">
         <v>12.5</v>
       </c>
       <c r="V183">
+        <f t="shared" si="5"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -14214,7 +14652,7 @@
         <v>62000000</v>
       </c>
       <c r="K184">
-        <v>2.564516129</v>
+        <v>2.5645161289999998</v>
       </c>
       <c r="L184">
         <v>17055</v>
@@ -14223,10 +14661,10 @@
         <v>240629</v>
       </c>
       <c r="N184">
-        <v>7.087674</v>
+        <v>7.0876739999999998</v>
       </c>
       <c r="O184">
-        <v>7.087674</v>
+        <v>7.0876739999999998</v>
       </c>
       <c r="P184">
         <v>63.3</v>
@@ -14241,16 +14679,18 @@
         <v>20</v>
       </c>
       <c r="T184">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U184">
         <v>2.5</v>
       </c>
       <c r="V184">
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -14282,7 +14722,7 @@
         <v>60500000</v>
       </c>
       <c r="K185">
-        <v>1.73553719</v>
+        <v>1.7355371900000001</v>
       </c>
       <c r="M185">
         <v>-186</v>
@@ -14306,16 +14746,18 @@
         <v>22.5</v>
       </c>
       <c r="T185">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U185">
         <v>2.5</v>
       </c>
       <c r="V185">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -14347,7 +14789,7 @@
         <v>77511500</v>
       </c>
       <c r="K186">
-        <v>6.024912432</v>
+        <v>6.0249124319999998</v>
       </c>
       <c r="L186">
         <v>17429</v>
@@ -14356,13 +14798,13 @@
         <v>143265</v>
       </c>
       <c r="N186">
-        <v>12.16557</v>
+        <v>12.165570000000001</v>
       </c>
       <c r="O186">
-        <v>12.16557</v>
+        <v>12.165570000000001</v>
       </c>
       <c r="P186">
-        <v>38.73</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="Q186">
         <v>12.5</v>
@@ -14374,16 +14816,18 @@
         <v>15</v>
       </c>
       <c r="T186">
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="U186">
         <v>12.5</v>
       </c>
       <c r="V186">
-        <v>59.16666666666667</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>59.166666666666671</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -14439,16 +14883,18 @@
         <v>25</v>
       </c>
       <c r="T187">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U187">
         <v>2.5</v>
       </c>
       <c r="V187">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -14468,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I188">
         <v>222258000</v>
@@ -14477,7 +14923,7 @@
         <v>72330500</v>
       </c>
       <c r="K188">
-        <v>3.072811608</v>
+        <v>3.0728116079999999</v>
       </c>
       <c r="L188">
         <v>19620</v>
@@ -14504,16 +14950,18 @@
         <v>20</v>
       </c>
       <c r="T188">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U188">
         <v>2.5</v>
       </c>
       <c r="V188">
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -14536,7 +14984,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I189">
         <v>673335000</v>
@@ -14545,7 +14993,7 @@
         <v>68404250</v>
       </c>
       <c r="K189">
-        <v>9.843467327999999</v>
+        <v>9.8434673279999991</v>
       </c>
       <c r="L189">
         <v>16808</v>
@@ -14554,10 +15002,10 @@
         <v>71896</v>
       </c>
       <c r="N189">
-        <v>23.37821</v>
+        <v>23.378209999999999</v>
       </c>
       <c r="O189">
-        <v>23.37821</v>
+        <v>23.378209999999999</v>
       </c>
       <c r="P189">
         <v>38</v>
@@ -14572,16 +15020,18 @@
         <v>7.5</v>
       </c>
       <c r="T189">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U189">
         <v>12.5</v>
       </c>
       <c r="V189">
+        <f t="shared" si="5"/>
         <v>42.5</v>
       </c>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -14604,7 +15054,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I190">
         <v>459000000</v>
@@ -14622,10 +15072,10 @@
         <v>-79466</v>
       </c>
       <c r="N190">
-        <v>-3.83183</v>
+        <v>-3.8318300000000001</v>
       </c>
       <c r="O190">
-        <v>3.83183</v>
+        <v>3.8318300000000001</v>
       </c>
       <c r="P190">
         <v>30.07</v>
@@ -14640,16 +15090,18 @@
         <v>12.5</v>
       </c>
       <c r="T190">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U190">
         <v>17.5</v>
       </c>
       <c r="V190">
+        <f t="shared" si="5"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -14681,7 +15133,7 @@
         <v>47000000</v>
       </c>
       <c r="K191">
-        <v>6.808510638</v>
+        <v>6.8085106379999996</v>
       </c>
       <c r="L191">
         <v>10812</v>
@@ -14690,10 +15142,10 @@
         <v>-16596</v>
       </c>
       <c r="N191">
-        <v>-65.1482</v>
+        <v>-65.148200000000003</v>
       </c>
       <c r="O191">
-        <v>65.1482</v>
+        <v>65.148200000000003</v>
       </c>
       <c r="P191">
         <v>44.25</v>
@@ -14702,22 +15154,24 @@
         <v>15</v>
       </c>
       <c r="R191">
-        <v>18.33333333333334</v>
+        <v>18.333333333333339</v>
       </c>
       <c r="S191">
         <v>12.5</v>
       </c>
       <c r="T191">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U191">
         <v>10</v>
       </c>
       <c r="V191">
-        <v>55.83333333333334</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>55.833333333333343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -14740,7 +15194,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>55.55555555555556</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="I192">
         <v>156475000</v>
@@ -14749,7 +15203,7 @@
         <v>51366750</v>
       </c>
       <c r="K192">
-        <v>3.046231268</v>
+        <v>3.0462312680000001</v>
       </c>
       <c r="L192">
         <v>28329</v>
@@ -14758,10 +15212,10 @@
         <v>28721</v>
       </c>
       <c r="N192">
-        <v>98.63515</v>
+        <v>98.635149999999996</v>
       </c>
       <c r="O192">
-        <v>98.63515</v>
+        <v>98.635149999999996</v>
       </c>
       <c r="P192">
         <v>61.01</v>
@@ -14770,22 +15224,24 @@
         <v>12.5</v>
       </c>
       <c r="R192">
-        <v>23.33333333333334</v>
+        <v>23.333333333333339</v>
       </c>
       <c r="S192">
         <v>20</v>
       </c>
       <c r="T192">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U192">
         <v>2.5</v>
       </c>
       <c r="V192">
-        <v>58.33333333333334</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>58.333333333333343</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -14817,7 +15273,7 @@
         <v>46050000</v>
       </c>
       <c r="K193">
-        <v>4.560260586</v>
+        <v>4.5602605860000001</v>
       </c>
       <c r="L193">
         <v>13507</v>
@@ -14826,10 +15282,10 @@
         <v>77931</v>
       </c>
       <c r="N193">
-        <v>17.332</v>
+        <v>17.332000000000001</v>
       </c>
       <c r="O193">
-        <v>17.332</v>
+        <v>17.332000000000001</v>
       </c>
       <c r="P193">
         <v>74.38</v>
@@ -14844,16 +15300,18 @@
         <v>17.5</v>
       </c>
       <c r="T193">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U193">
         <v>2.5</v>
       </c>
       <c r="V193">
-        <v>29.16666666666667</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>29.166666666666668</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -14876,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="O194">
         <v>0</v>
@@ -14894,16 +15352,18 @@
         <v>2.5</v>
       </c>
       <c r="T194">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U194">
         <v>0</v>
       </c>
       <c r="V194">
-        <v>16.66666666666667</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22">
+        <f t="shared" si="5"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -14962,16 +15422,18 @@
         <v>20</v>
       </c>
       <c r="T195">
+        <f t="shared" ref="T195:T201" si="6">IF(G195,0,12.5)</f>
         <v>0</v>
       </c>
       <c r="U195">
         <v>12.5</v>
       </c>
       <c r="V195">
-        <v>48.33333333333333</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22">
+        <f t="shared" ref="V195:V201" si="7">SUM(Q195:U195)</f>
+        <v>48.333333333333329</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -15003,7 +15465,7 @@
         <v>57500000</v>
       </c>
       <c r="K196">
-        <v>1.356521739</v>
+        <v>1.3565217389999999</v>
       </c>
       <c r="L196">
         <v>2249</v>
@@ -15030,16 +15492,18 @@
         <v>25</v>
       </c>
       <c r="T196">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U196">
         <v>20</v>
       </c>
       <c r="V196">
-        <v>64.16666666666667</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22">
+        <f t="shared" si="7"/>
+        <v>64.166666666666671</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -15071,7 +15535,7 @@
         <v>59500000</v>
       </c>
       <c r="K197">
-        <v>3.058823529</v>
+        <v>3.0588235290000001</v>
       </c>
       <c r="L197">
         <v>20512</v>
@@ -15080,10 +15544,10 @@
         <v>106711</v>
       </c>
       <c r="N197">
-        <v>19.22201</v>
+        <v>19.222010000000001</v>
       </c>
       <c r="O197">
-        <v>19.22201</v>
+        <v>19.222010000000001</v>
       </c>
       <c r="P197">
         <v>67.7</v>
@@ -15098,16 +15562,18 @@
         <v>20</v>
       </c>
       <c r="T197">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U197">
         <v>2.5</v>
       </c>
       <c r="V197">
-        <v>44.16666666666667</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22">
+        <f t="shared" si="7"/>
+        <v>44.166666666666671</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -15130,7 +15596,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>57.14285714285714</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="I198">
         <v>384000000</v>
@@ -15139,7 +15605,7 @@
         <v>62000000</v>
       </c>
       <c r="K198">
-        <v>6.193548387</v>
+        <v>6.1935483869999999</v>
       </c>
       <c r="L198">
         <v>25226</v>
@@ -15148,10 +15614,10 @@
         <v>125102</v>
       </c>
       <c r="N198">
-        <v>20.16435</v>
+        <v>20.164349999999999</v>
       </c>
       <c r="O198">
-        <v>20.16435</v>
+        <v>20.164349999999999</v>
       </c>
       <c r="P198">
         <v>43.1</v>
@@ -15166,16 +15632,18 @@
         <v>12.5</v>
       </c>
       <c r="T198">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U198">
         <v>10</v>
       </c>
       <c r="V198">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -15195,7 +15663,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>42.85714285714285</v>
+        <v>42.857142857142847</v>
       </c>
       <c r="I199">
         <v>117000000</v>
@@ -15204,7 +15672,7 @@
         <v>55500000</v>
       </c>
       <c r="K199">
-        <v>2.108108108</v>
+        <v>2.1081081080000001</v>
       </c>
       <c r="L199">
         <v>7149</v>
@@ -15219,7 +15687,7 @@
         <v>46.802</v>
       </c>
       <c r="P199">
-        <v>39.52</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="Q199">
         <v>5</v>
@@ -15231,16 +15699,18 @@
         <v>22.5</v>
       </c>
       <c r="T199">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U199">
         <v>12.5</v>
       </c>
       <c r="V199">
-        <v>53.33333333333333</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22">
+        <f t="shared" si="7"/>
+        <v>53.333333333333329</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -15284,7 +15754,7 @@
         <v>0</v>
       </c>
       <c r="P200">
-        <v>66.06999999999999</v>
+        <v>66.069999999999993</v>
       </c>
       <c r="Q200">
         <v>5</v>
@@ -15296,16 +15766,18 @@
         <v>20</v>
       </c>
       <c r="T200">
+        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="U200">
         <v>2.5</v>
       </c>
       <c r="V200">
-        <v>41.66666666666667</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22">
+        <f t="shared" si="7"/>
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -15337,7 +15809,7 @@
         <v>44168500</v>
       </c>
       <c r="K201">
-        <v>4.889163091</v>
+        <v>4.8891630910000003</v>
       </c>
       <c r="L201">
         <v>6026</v>
@@ -15346,10 +15818,10 @@
         <v>67973</v>
       </c>
       <c r="N201">
-        <v>8.865285</v>
+        <v>8.8652850000000001</v>
       </c>
       <c r="O201">
-        <v>8.865285</v>
+        <v>8.8652850000000001</v>
       </c>
       <c r="P201">
         <v>44.41</v>
@@ -15364,16 +15836,20 @@
         <v>15</v>
       </c>
       <c r="T201">
+        <f t="shared" si="6"/>
         <v>12.5</v>
       </c>
       <c r="U201">
         <v>10</v>
       </c>
       <c r="V201">
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>